--- a/Results/daily_return/df_portfolio_gbm_daily.xlsx
+++ b/Results/daily_return/df_portfolio_gbm_daily.xlsx
@@ -4757,7 +4757,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0.008293661441405007</v>
+        <v>0.007945550394562599</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -4765,7 +4765,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.01902576901014463</v>
+        <v>0.01081315003861807</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -4773,7 +4773,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.005824787098533552</v>
+        <v>0.003488156695707725</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4781,7 +4781,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>-0.00126115738068575</v>
+        <v>0.004282359760070024</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -4789,7 +4789,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0.01283811794633467</v>
+        <v>0.01246624324055303</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4797,7 +4797,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0.01186584963855149</v>
+        <v>0.005491627178299062</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -4805,7 +4805,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0.001773312728041239</v>
+        <v>-0.006523541615692763</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -4813,7 +4813,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0.007723969480909623</v>
+        <v>0.009305054576690584</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -4821,7 +4821,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0.001558032943054408</v>
+        <v>-0.0006444948191394735</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4829,7 +4829,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0.002266598930408053</v>
+        <v>-0.003096302475925975</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -4837,7 +4837,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>0.008400642847244537</v>
+        <v>0.008778885990738682</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -4845,7 +4845,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>0.01146027802751079</v>
+        <v>0.01117129403217779</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -4853,7 +4853,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>0.004774870173250474</v>
+        <v>0.005669420283923588</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -4861,7 +4861,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>-0.002239380466359951</v>
+        <v>0.001345996183834923</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -4869,7 +4869,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>-0.003386131450119238</v>
+        <v>0.003147235309054704</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -4877,7 +4877,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>-0.0219123066493296</v>
+        <v>0.0005350697195442235</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -4885,7 +4885,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>-0.008420303762586319</v>
+        <v>-0.002732824704564496</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -4893,7 +4893,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>0.007672270897212953</v>
+        <v>0.007682127522283857</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -4901,7 +4901,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>-0.008461537776827968</v>
+        <v>-0.00624336735540423</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -4909,7 +4909,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>0.0007928820058383736</v>
+        <v>-0.003348708866626167</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -4917,7 +4917,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>0.00622888794785873</v>
+        <v>0.004354142048662994</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -4925,7 +4925,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>-0.0006990527804982499</v>
+        <v>-0.002508034153975353</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -4933,7 +4933,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>-0.01632635895038544</v>
+        <v>-0.01288366183252143</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -4941,7 +4941,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>0.01527425481476721</v>
+        <v>0.01637542143267734</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -4949,7 +4949,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>-0.01555482605576452</v>
+        <v>-0.01693336536063616</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -4957,7 +4957,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>-0.02133481730314325</v>
+        <v>-0.02041763105801142</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -4965,7 +4965,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>0.01586868702550069</v>
+        <v>-0.001766342217031539</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -4973,7 +4973,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>0.0183803286760241</v>
+        <v>0.02344377128519702</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -4981,7 +4981,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>0.01232202753052884</v>
+        <v>0.01001362927085039</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -4989,7 +4989,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>0.008007011473576874</v>
+        <v>0.007854856085503263</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -4997,7 +4997,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>-0.01401287348561922</v>
+        <v>-0.01220025548647007</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -5005,7 +5005,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>0.01132206857645645</v>
+        <v>0.003257807490660324</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -5013,7 +5013,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>-0.01271035605946108</v>
+        <v>-0.004384254526794393</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -5021,7 +5021,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>0.01099126651684571</v>
+        <v>0.005282318524257298</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -5029,7 +5029,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>0.00113723155435836</v>
+        <v>-0.002156902368466317</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -5037,7 +5037,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>0.007419352870423191</v>
+        <v>-0.004884538685722015</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -5045,7 +5045,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>-0.005080040676774969</v>
+        <v>-0.0086588017131658</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -5053,7 +5053,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>0.004094339466786309</v>
+        <v>6.062689732981447e-05</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -5061,7 +5061,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>-0.0036644582547801</v>
+        <v>0.001730610716492191</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -5069,7 +5069,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>-0.0007940197019398997</v>
+        <v>0.00183103258393041</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -5077,7 +5077,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>0.007385820704582299</v>
+        <v>0.004503030664296293</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -5085,7 +5085,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>-0.005121849535416554</v>
+        <v>-0.007217500931857802</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -5093,7 +5093,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>0.0175610676083063</v>
+        <v>0.0184011549695299</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -5101,7 +5101,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>-0.0009010737882816957</v>
+        <v>0.0005931891649614846</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -5109,7 +5109,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>0.0008089009297873829</v>
+        <v>0.002133064851253227</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -5117,7 +5117,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>0.001070421030456108</v>
+        <v>-0.003926263679851187</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -5125,7 +5125,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>0.003698248664233408</v>
+        <v>0.004505934893755979</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -5133,7 +5133,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>-0.0151403371673979</v>
+        <v>-0.009520980764516256</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -5141,7 +5141,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>0.00796827039572616</v>
+        <v>0.01427990262698435</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -5149,7 +5149,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>0.002538238995770698</v>
+        <v>0.005655593231242341</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -5157,7 +5157,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>0.008386396312962884</v>
+        <v>0.003020477307839065</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -5165,7 +5165,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>0.009482911389746098</v>
+        <v>0.01000303896100613</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -5173,7 +5173,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>-0.009166985503028795</v>
+        <v>-0.009037927297730911</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -5181,7 +5181,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>0.004793102901619066</v>
+        <v>0.009584870058134354</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -5189,7 +5189,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>-0.005344750534340617</v>
+        <v>-0.006088138205526224</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -5197,7 +5197,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>-0.003412259641087241</v>
+        <v>-0.006310073357173479</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -5205,7 +5205,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>0.0007845422143868703</v>
+        <v>-0.003001661940159276</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -5213,7 +5213,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>0.01777608270134853</v>
+        <v>0.01225285216636447</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -5221,7 +5221,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>-0.009612832002962113</v>
+        <v>-0.002503321639090367</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -5229,7 +5229,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>-0.006360733950655959</v>
+        <v>-0.000807547293238828</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -5237,7 +5237,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>0.009343799544799292</v>
+        <v>0.004781994949859072</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -5245,7 +5245,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>0.005102479131795592</v>
+        <v>0.002892838572428791</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -5269,7 +5269,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>-0.002946677550785626</v>
+        <v>-0.002577893160745887</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -5277,7 +5277,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>0.0006625764486990846</v>
+        <v>0.0005381617037581474</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -5285,7 +5285,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>0.002392191410246294</v>
+        <v>0.003423742365592487</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -5293,7 +5293,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>-0.001394993586249249</v>
+        <v>-0.002447179446206256</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -5301,7 +5301,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>0.009530770675659687</v>
+        <v>0.008864909104981052</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -5309,7 +5309,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>-0.001263765813094482</v>
+        <v>-0.001736145198572288</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -5317,7 +5317,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>-0.001295670519587579</v>
+        <v>-0.001321993723890146</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -5325,7 +5325,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>-0.01263938862217283</v>
+        <v>-0.01205973427098816</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -5333,7 +5333,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>-0.005252230575308791</v>
+        <v>-0.005701390892814726</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -5341,7 +5341,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>0.01299254282022545</v>
+        <v>0.01675638308942719</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -5349,7 +5349,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>0.005355155583095025</v>
+        <v>0.003947466184035984</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -5357,7 +5357,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>0.0118034929398603</v>
+        <v>0.01168672848912936</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -5365,7 +5365,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>0.009138979383874138</v>
+        <v>0.009516176835352738</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -5373,7 +5373,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>-0.001757094004690929</v>
+        <v>-0.0008760123055455912</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -5381,7 +5381,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>0.0171762179670538</v>
+        <v>0.01710823033075788</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -5389,7 +5389,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>0.006324661005052841</v>
+        <v>0.006340857950909656</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -5397,7 +5397,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>0.00450585809370112</v>
+        <v>0.004471635891608252</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -5405,7 +5405,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>-0.001201899177264176</v>
+        <v>-0.001547462134067552</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -5413,7 +5413,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>0.0006069197340482222</v>
+        <v>0.0002122737616996314</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -5421,7 +5421,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>0.004165342712761346</v>
+        <v>0.003969682413774432</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -5429,7 +5429,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>0.0057186245734696</v>
+        <v>0.006027969727064534</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -5437,7 +5437,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>-0.01123367671579714</v>
+        <v>-0.01037481640844899</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -5445,7 +5445,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>-0.0009748070795036594</v>
+        <v>0.002112054754125207</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -5453,7 +5453,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>-0.01361324031580923</v>
+        <v>-0.01305444951458418</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -5461,7 +5461,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>0.0105398417309927</v>
+        <v>0.01010461969915829</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -5469,7 +5469,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>0.002878170374570253</v>
+        <v>-0.001016191922902038</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -5477,7 +5477,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>-0.008340175153187282</v>
+        <v>-0.007952934940606379</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -5485,7 +5485,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>0.004913138019374433</v>
+        <v>0.004214655514756517</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -5493,7 +5493,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>-0.0147102002776878</v>
+        <v>-0.01359072631309053</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -5501,7 +5501,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>0.02196552479527537</v>
+        <v>0.02406489930699879</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -5509,7 +5509,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>0.01138053585376677</v>
+        <v>0.01016890872714828</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -5517,7 +5517,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>-0.007686911544839122</v>
+        <v>-0.00390947350758813</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -5525,7 +5525,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>-0.009441528959368516</v>
+        <v>-0.007621802377180023</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -5549,7 +5549,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>0.01322216927591913</v>
+        <v>0.008161328590034362</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -5557,7 +5557,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>-0.005077595421897297</v>
+        <v>-0.004635757934273686</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -5565,7 +5565,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>-0.02895866589102385</v>
+        <v>-0.02824105266022626</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -5573,7 +5573,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>-0.001581545560066969</v>
+        <v>-0.0007382433798548346</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -5581,7 +5581,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>-0.006424547551191662</v>
+        <v>-0.003011445060732714</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -5589,7 +5589,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>-0.005354758542335128</v>
+        <v>-0.004646464347323235</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -5597,7 +5597,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>0.009929116284492478</v>
+        <v>0.007764645121801994</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -5605,7 +5605,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>-0.00640774089386294</v>
+        <v>-0.007387263350230973</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -5765,7 +5765,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>-0.006605265473690655</v>
+        <v>-0.007919940563572545</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -5773,7 +5773,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>0.01739606861858035</v>
+        <v>0.01636576102164848</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -5781,7 +5781,7 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>0.002458366231206436</v>
+        <v>0.00406583419377865</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -5789,7 +5789,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>0.002235081895949293</v>
+        <v>0.002069295236461354</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -5797,7 +5797,7 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>-0.002959674776052841</v>
+        <v>-0.006230218030983092</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -5805,7 +5805,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>-0.003887173108778325</v>
+        <v>-0.002726111285896306</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -5813,7 +5813,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>-0.006992168270696001</v>
+        <v>-0.003026360280314361</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -5821,7 +5821,7 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>0.0031157845857485</v>
+        <v>0.006533291601999103</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -5829,7 +5829,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>-0.02033204028666178</v>
+        <v>-0.0215325577647894</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -5837,7 +5837,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>0.001259378404106034</v>
+        <v>0.001506051225859385</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -5845,7 +5845,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>0.01056157559258476</v>
+        <v>0.008486762055649993</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -5853,7 +5853,7 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>0.01469135064346645</v>
+        <v>0.01380561183941876</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -5861,7 +5861,7 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>-0.002620804930570071</v>
+        <v>-0.0004712030083446091</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -5869,7 +5869,7 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>0.0121106373175884</v>
+        <v>0.007630076832404858</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -5877,7 +5877,7 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>-0.009501330079977197</v>
+        <v>-0.01389370596839396</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -5885,7 +5885,7 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>-0.00475518077851105</v>
+        <v>-0.003034098314418876</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -5893,7 +5893,7 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>0.006501036955703921</v>
+        <v>0.009505730616480522</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -5901,7 +5901,7 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>-0.01331827153968514</v>
+        <v>-0.01344996143577055</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -5909,7 +5909,7 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>-0.005736343586664192</v>
+        <v>-0.004392563701771897</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -5917,7 +5917,7 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>0.005153054361958273</v>
+        <v>0.005316734448028946</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -5925,7 +5925,7 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>0.01270539068037254</v>
+        <v>0.012807654458945</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -6101,7 +6101,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>-0.005877104516605592</v>
+        <v>-0.0002626328137387067</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -6109,7 +6109,7 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>-0.003660182306407489</v>
+        <v>-0.004260453559155286</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -6117,7 +6117,7 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>0.006136179836812678</v>
+        <v>0.005714707944074751</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -6125,7 +6125,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>-0.01402379996198797</v>
+        <v>-0.01502907466531418</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -6133,7 +6133,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>0.000141073099763534</v>
+        <v>-0.003375522852251114</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -6141,7 +6141,7 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>0.0005319622281142507</v>
+        <v>0.001264040079078982</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -6149,7 +6149,7 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>0.002961532566356656</v>
+        <v>-0.001371221061009915</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -6157,7 +6157,7 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>0.01650647024164633</v>
+        <v>0.0189446092503465</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -6165,7 +6165,7 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>-0.0003220940524215287</v>
+        <v>-0.003035403408203761</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -6173,7 +6173,7 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>-0.003720889643310067</v>
+        <v>-0.00320697708001019</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -6181,7 +6181,7 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>-0.003177109973015504</v>
+        <v>-0.002354834902857203</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -6189,7 +6189,7 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>0.006978109940173851</v>
+        <v>0.01204257443330006</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -6197,7 +6197,7 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>0.01130069738487097</v>
+        <v>0.01038223973864755</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -6205,7 +6205,7 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>-0.01071827547373623</v>
+        <v>-0.009573805069605016</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -6213,7 +6213,7 @@
         <v>205</v>
       </c>
       <c r="B206">
-        <v>0.001668120590758414</v>
+        <v>0.003211572978504848</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -6221,7 +6221,7 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>0.0006377537090814712</v>
+        <v>0.005662249652064042</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -6229,7 +6229,7 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>0.02173380792491295</v>
+        <v>0.01295394033620722</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -6253,7 +6253,7 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>-0.002170244008072517</v>
+        <v>-0.002998507895214067</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -6261,7 +6261,7 @@
         <v>211</v>
       </c>
       <c r="B212">
-        <v>0.006494014502113196</v>
+        <v>0.006497547604851954</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -6269,7 +6269,7 @@
         <v>212</v>
       </c>
       <c r="B213">
-        <v>-0.003894028925158392</v>
+        <v>-0.004144346895863223</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -6445,7 +6445,7 @@
         <v>234</v>
       </c>
       <c r="B235">
-        <v>0.01071789050573189</v>
+        <v>0.01063710797536653</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -6453,7 +6453,7 @@
         <v>235</v>
       </c>
       <c r="B236">
-        <v>0.0001508199556120005</v>
+        <v>0.0003536241667054278</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -6461,7 +6461,7 @@
         <v>236</v>
       </c>
       <c r="B237">
-        <v>0.00599410104100085</v>
+        <v>0.005979330103882088</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -6485,7 +6485,7 @@
         <v>239</v>
       </c>
       <c r="B240">
-        <v>-0.01153875711654489</v>
+        <v>-0.01174941383753811</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -6493,7 +6493,7 @@
         <v>240</v>
       </c>
       <c r="B241">
-        <v>0.0008588054701718191</v>
+        <v>0.0001317904367569258</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -6501,7 +6501,7 @@
         <v>241</v>
       </c>
       <c r="B242">
-        <v>-0.003963645722938258</v>
+        <v>-0.00411012716564259</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -6509,7 +6509,7 @@
         <v>242</v>
       </c>
       <c r="B243">
-        <v>-0.001042679214453753</v>
+        <v>-0.001212495117971818</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -6517,7 +6517,7 @@
         <v>243</v>
       </c>
       <c r="B244">
-        <v>0.007194504354504279</v>
+        <v>0.007514127418346479</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -6525,7 +6525,7 @@
         <v>244</v>
       </c>
       <c r="B245">
-        <v>-0.005134813955853633</v>
+        <v>-0.005690563978498282</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -6533,7 +6533,7 @@
         <v>245</v>
       </c>
       <c r="B246">
-        <v>0.005091930698999743</v>
+        <v>0.004803364205953418</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -6541,7 +6541,7 @@
         <v>246</v>
       </c>
       <c r="B247">
-        <v>-0.01114502479758357</v>
+        <v>-0.01104374014651403</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -6549,7 +6549,7 @@
         <v>247</v>
       </c>
       <c r="B248">
-        <v>0.006745174659035221</v>
+        <v>0.006913864518853342</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -6557,7 +6557,7 @@
         <v>248</v>
       </c>
       <c r="B249">
-        <v>-0.003967271727909024</v>
+        <v>-0.003931152860616212</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -6565,7 +6565,7 @@
         <v>249</v>
       </c>
       <c r="B250">
-        <v>0.006883767365928243</v>
+        <v>0.007099495702387245</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -6573,7 +6573,7 @@
         <v>250</v>
       </c>
       <c r="B251">
-        <v>-0.01525484325492623</v>
+        <v>-0.01526392761666498</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -6581,7 +6581,7 @@
         <v>251</v>
       </c>
       <c r="B252">
-        <v>0.003465828665418579</v>
+        <v>0.003186893960780637</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -6589,7 +6589,7 @@
         <v>252</v>
       </c>
       <c r="B253">
-        <v>-0.007388900777495959</v>
+        <v>-0.00781758984758869</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -6597,7 +6597,7 @@
         <v>253</v>
       </c>
       <c r="B254">
-        <v>-0.001898924129321229</v>
+        <v>-0.00195729679948785</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -6605,7 +6605,7 @@
         <v>254</v>
       </c>
       <c r="B255">
-        <v>-0.001271131558518888</v>
+        <v>-0.000995951699397864</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -6613,7 +6613,7 @@
         <v>255</v>
       </c>
       <c r="B256">
-        <v>0.01140710512085123</v>
+        <v>0.01181021307885026</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -6621,7 +6621,7 @@
         <v>256</v>
       </c>
       <c r="B257">
-        <v>-0.02166290256714846</v>
+        <v>-0.02203913829141155</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -6629,7 +6629,7 @@
         <v>257</v>
       </c>
       <c r="B258">
-        <v>-0.002353515044845888</v>
+        <v>-0.004346371956603303</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -6637,7 +6637,7 @@
         <v>258</v>
       </c>
       <c r="B259">
-        <v>0.009669465558618437</v>
+        <v>0.008854972137389578</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -6645,7 +6645,7 @@
         <v>259</v>
       </c>
       <c r="B260">
-        <v>-0.002921467409537853</v>
+        <v>0.0006387134193470224</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -6653,7 +6653,7 @@
         <v>260</v>
       </c>
       <c r="B261">
-        <v>-0.005887203146813061</v>
+        <v>-0.003250894376749378</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -6661,7 +6661,7 @@
         <v>261</v>
       </c>
       <c r="B262">
-        <v>-0.006127826218557201</v>
+        <v>-0.005579669106148817</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -6669,7 +6669,7 @@
         <v>262</v>
       </c>
       <c r="B263">
-        <v>0.01131438069199092</v>
+        <v>0.01520661578592916</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -6677,7 +6677,7 @@
         <v>263</v>
       </c>
       <c r="B264">
-        <v>0.00761690764906132</v>
+        <v>0.007920852223749624</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -6685,7 +6685,7 @@
         <v>264</v>
       </c>
       <c r="B265">
-        <v>-0.005194329241006039</v>
+        <v>-0.006183789452300001</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -6693,7 +6693,7 @@
         <v>265</v>
       </c>
       <c r="B266">
-        <v>0.01039029422497091</v>
+        <v>0.01019054900555506</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -6701,7 +6701,7 @@
         <v>266</v>
       </c>
       <c r="B267">
-        <v>0.001061878410659981</v>
+        <v>0.001082388792769355</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -6709,7 +6709,7 @@
         <v>267</v>
       </c>
       <c r="B268">
-        <v>-0.001497417213494004</v>
+        <v>0.0006567483392224522</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -6717,7 +6717,7 @@
         <v>268</v>
       </c>
       <c r="B269">
-        <v>0.01222456415789466</v>
+        <v>0.01203555482450801</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -6725,7 +6725,7 @@
         <v>269</v>
       </c>
       <c r="B270">
-        <v>0.006534992395048233</v>
+        <v>0.007692962543915436</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -6733,7 +6733,7 @@
         <v>270</v>
       </c>
       <c r="B271">
-        <v>0.0008244901446380855</v>
+        <v>0.001290873040171839</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -6741,7 +6741,7 @@
         <v>271</v>
       </c>
       <c r="B272">
-        <v>0.005592669297054089</v>
+        <v>0.003786433040640505</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -6749,7 +6749,7 @@
         <v>272</v>
       </c>
       <c r="B273">
-        <v>-0.001207840627590697</v>
+        <v>-0.000857696003554676</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -6757,7 +6757,7 @@
         <v>273</v>
       </c>
       <c r="B274">
-        <v>-0.002182465863631603</v>
+        <v>-0.0014114198780272</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -6765,7 +6765,7 @@
         <v>274</v>
       </c>
       <c r="B275">
-        <v>0.003863791278423501</v>
+        <v>0.004822929587342603</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -6773,7 +6773,7 @@
         <v>275</v>
       </c>
       <c r="B276">
-        <v>-0.001973145176953031</v>
+        <v>-0.002964619010232307</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -6781,7 +6781,7 @@
         <v>276</v>
       </c>
       <c r="B277">
-        <v>-0.001424204333870819</v>
+        <v>-0.00183213390363419</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -6789,7 +6789,7 @@
         <v>277</v>
       </c>
       <c r="B278">
-        <v>0.006874208986131099</v>
+        <v>0.01003611245049139</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -7149,7 +7149,7 @@
         <v>322</v>
       </c>
       <c r="B323">
-        <v>0.006610299287111392</v>
+        <v>0.005527357516898529</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -7157,7 +7157,7 @@
         <v>323</v>
       </c>
       <c r="B324">
-        <v>0.001004806350792754</v>
+        <v>-0.001097733636191942</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -7165,7 +7165,7 @@
         <v>324</v>
       </c>
       <c r="B325">
-        <v>0.01180752684306796</v>
+        <v>0.01205495946151449</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -7173,7 +7173,7 @@
         <v>325</v>
       </c>
       <c r="B326">
-        <v>-0.003578065099658534</v>
+        <v>-0.00202532554727146</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -7181,7 +7181,7 @@
         <v>326</v>
       </c>
       <c r="B327">
-        <v>0.003253976273554506</v>
+        <v>0.0005791675891319216</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -7189,7 +7189,7 @@
         <v>327</v>
       </c>
       <c r="B328">
-        <v>0.005478279475048251</v>
+        <v>0.002117991764708431</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -7197,7 +7197,7 @@
         <v>328</v>
       </c>
       <c r="B329">
-        <v>0.0008551378804119405</v>
+        <v>-0.002512035965819821</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -7205,7 +7205,7 @@
         <v>329</v>
       </c>
       <c r="B330">
-        <v>-0.0007765295219744252</v>
+        <v>0.002734573625682656</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -7213,7 +7213,7 @@
         <v>330</v>
       </c>
       <c r="B331">
-        <v>0.0009401607560089026</v>
+        <v>-0.001579691806476646</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -7221,7 +7221,7 @@
         <v>331</v>
       </c>
       <c r="B332">
-        <v>0.005514968434162422</v>
+        <v>0.006501053738453173</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -7229,7 +7229,7 @@
         <v>332</v>
       </c>
       <c r="B333">
-        <v>-0.001900800849011305</v>
+        <v>-0.002675293710747765</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -7237,7 +7237,7 @@
         <v>333</v>
       </c>
       <c r="B334">
-        <v>0.004133004539062742</v>
+        <v>0.005530808072449196</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -7245,7 +7245,7 @@
         <v>334</v>
       </c>
       <c r="B335">
-        <v>-0.006783218231563958</v>
+        <v>-0.008521247452917583</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -7253,7 +7253,7 @@
         <v>335</v>
       </c>
       <c r="B336">
-        <v>0.002665450796216912</v>
+        <v>0.0034977346275348</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -7261,7 +7261,7 @@
         <v>336</v>
       </c>
       <c r="B337">
-        <v>0.009740446855495109</v>
+        <v>0.01107832256852297</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -7269,7 +7269,7 @@
         <v>337</v>
       </c>
       <c r="B338">
-        <v>0.008350773031167234</v>
+        <v>0.008459950834617402</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -7277,7 +7277,7 @@
         <v>338</v>
       </c>
       <c r="B339">
-        <v>0.001019588643781807</v>
+        <v>0.0008367426966928001</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -7285,7 +7285,7 @@
         <v>339</v>
       </c>
       <c r="B340">
-        <v>0.008358483470024072</v>
+        <v>0.00967905304525862</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -7309,7 +7309,7 @@
         <v>342</v>
       </c>
       <c r="B343">
-        <v>-0.006181184756044353</v>
+        <v>-0.006525765341429146</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -7317,7 +7317,7 @@
         <v>343</v>
       </c>
       <c r="B344">
-        <v>0.002679800660602694</v>
+        <v>0.0027639729719012</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -7325,7 +7325,7 @@
         <v>344</v>
       </c>
       <c r="B345">
-        <v>0.01454839176656838</v>
+        <v>0.01532713440828162</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -7333,7 +7333,7 @@
         <v>345</v>
       </c>
       <c r="B346">
-        <v>-0.002521855528344899</v>
+        <v>-0.002526315828107698</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -7341,7 +7341,7 @@
         <v>346</v>
       </c>
       <c r="B347">
-        <v>0.004312910757084096</v>
+        <v>0.004676886488530107</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -7349,7 +7349,7 @@
         <v>347</v>
       </c>
       <c r="B348">
-        <v>-0.01175353603086427</v>
+        <v>-0.01235995395046228</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -7357,7 +7357,7 @@
         <v>348</v>
       </c>
       <c r="B349">
-        <v>-0.002183108876949389</v>
+        <v>-0.002344468756687854</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -7365,7 +7365,7 @@
         <v>349</v>
       </c>
       <c r="B350">
-        <v>-0.01676511534113016</v>
+        <v>-0.01766701982303657</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -7373,7 +7373,7 @@
         <v>350</v>
       </c>
       <c r="B351">
-        <v>0.003081688862698381</v>
+        <v>0.003535941916195726</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -7381,7 +7381,7 @@
         <v>351</v>
       </c>
       <c r="B352">
-        <v>-0.009163282997837323</v>
+        <v>-0.01004549698142468</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -7389,7 +7389,7 @@
         <v>352</v>
       </c>
       <c r="B353">
-        <v>-0.006700028531057381</v>
+        <v>-0.006975912599297101</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -7397,7 +7397,7 @@
         <v>353</v>
       </c>
       <c r="B354">
-        <v>-0.01026377527744047</v>
+        <v>-0.009691731776440832</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -7405,7 +7405,7 @@
         <v>354</v>
       </c>
       <c r="B355">
-        <v>0.01912023751388045</v>
+        <v>0.01869415306104343</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -7413,7 +7413,7 @@
         <v>355</v>
       </c>
       <c r="B356">
-        <v>0.01890567298798465</v>
+        <v>0.01976617095122214</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -7421,7 +7421,7 @@
         <v>356</v>
       </c>
       <c r="B357">
-        <v>0.0006727798558456839</v>
+        <v>0.00108722979766336</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -7429,7 +7429,7 @@
         <v>357</v>
       </c>
       <c r="B358">
-        <v>0.01034888979113211</v>
+        <v>0.009813467375737846</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -7437,7 +7437,7 @@
         <v>358</v>
       </c>
       <c r="B359">
-        <v>0.003378356029081053</v>
+        <v>0.003540324609655439</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -7445,7 +7445,7 @@
         <v>359</v>
       </c>
       <c r="B360">
-        <v>0.0006127407973739965</v>
+        <v>0.000742848971310517</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -7453,7 +7453,7 @@
         <v>360</v>
       </c>
       <c r="B361">
-        <v>0.002210532065560667</v>
+        <v>0.002480021063902164</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -7461,7 +7461,7 @@
         <v>361</v>
       </c>
       <c r="B362">
-        <v>-0.005055636086873978</v>
+        <v>-0.004745109702289517</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -7469,7 +7469,7 @@
         <v>362</v>
       </c>
       <c r="B363">
-        <v>-0.003760669945605011</v>
+        <v>-0.004050938711074063</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -7477,7 +7477,7 @@
         <v>363</v>
       </c>
       <c r="B364">
-        <v>-0.01056105787357938</v>
+        <v>-0.01057790337785534</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -7805,7 +7805,7 @@
         <v>404</v>
       </c>
       <c r="B405">
-        <v>0.009788690496803953</v>
+        <v>0.008920315596939742</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -7813,7 +7813,7 @@
         <v>405</v>
       </c>
       <c r="B406">
-        <v>-0.01731324871097344</v>
+        <v>-0.01631438927849462</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -7821,7 +7821,7 @@
         <v>406</v>
       </c>
       <c r="B407">
-        <v>-0.004619556298460267</v>
+        <v>-0.00673110106140406</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -7829,7 +7829,7 @@
         <v>407</v>
       </c>
       <c r="B408">
-        <v>0.008954187304531548</v>
+        <v>0.007663273459615249</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -7837,7 +7837,7 @@
         <v>408</v>
       </c>
       <c r="B409">
-        <v>-0.009536159658945123</v>
+        <v>-0.01116644433816095</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -7845,7 +7845,7 @@
         <v>409</v>
       </c>
       <c r="B410">
-        <v>0.004580119845725551</v>
+        <v>0.005585899843247494</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -7853,7 +7853,7 @@
         <v>410</v>
       </c>
       <c r="B411">
-        <v>-0.01685973360381707</v>
+        <v>-0.01743303209051886</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -7861,7 +7861,7 @@
         <v>411</v>
       </c>
       <c r="B412">
-        <v>-0.007167685006823434</v>
+        <v>-0.007170759280323068</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -7869,7 +7869,7 @@
         <v>412</v>
       </c>
       <c r="B413">
-        <v>0.007671455075648976</v>
+        <v>0.009506722530133819</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -7877,7 +7877,7 @@
         <v>413</v>
       </c>
       <c r="B414">
-        <v>-0.00333557469779546</v>
+        <v>-0.003782484557718339</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -7885,7 +7885,7 @@
         <v>414</v>
       </c>
       <c r="B415">
-        <v>0.011991033445477</v>
+        <v>0.01399829163647506</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -7893,7 +7893,7 @@
         <v>415</v>
       </c>
       <c r="B416">
-        <v>1.412304938637151e-05</v>
+        <v>0.002086895682185811</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -7901,7 +7901,7 @@
         <v>416</v>
       </c>
       <c r="B417">
-        <v>0.009401273785922152</v>
+        <v>0.009708782676758896</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -7909,7 +7909,7 @@
         <v>417</v>
       </c>
       <c r="B418">
-        <v>-0.0003537978297677444</v>
+        <v>-0.0001396127059048395</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -7917,7 +7917,7 @@
         <v>418</v>
       </c>
       <c r="B419">
-        <v>0.003339046121618266</v>
+        <v>0.004651146522008705</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -7925,7 +7925,7 @@
         <v>419</v>
       </c>
       <c r="B420">
-        <v>-0.005430135772437773</v>
+        <v>-0.005103745777154459</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -7933,7 +7933,7 @@
         <v>420</v>
       </c>
       <c r="B421">
-        <v>-0.009841172727393873</v>
+        <v>-0.01032363339896353</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -7941,7 +7941,7 @@
         <v>421</v>
       </c>
       <c r="B422">
-        <v>-0.02819710509018895</v>
+        <v>-0.02682123172173655</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -7949,7 +7949,7 @@
         <v>422</v>
       </c>
       <c r="B423">
-        <v>0.004794755683481798</v>
+        <v>0.004753115813752144</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -7957,7 +7957,7 @@
         <v>423</v>
       </c>
       <c r="B424">
-        <v>0.007561951978613901</v>
+        <v>0.006116376348341923</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -7965,7 +7965,7 @@
         <v>424</v>
       </c>
       <c r="B425">
-        <v>0.008272801256982992</v>
+        <v>0.009935678346658117</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -7973,7 +7973,7 @@
         <v>425</v>
       </c>
       <c r="B426">
-        <v>-0.009968073335464477</v>
+        <v>-0.007092379386155354</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -7981,7 +7981,7 @@
         <v>426</v>
       </c>
       <c r="B427">
-        <v>-0.00378573341047558</v>
+        <v>-0.003404463772314579</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -7989,7 +7989,7 @@
         <v>427</v>
       </c>
       <c r="B428">
-        <v>0.0004777010325182741</v>
+        <v>0.003017932566037035</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -7997,7 +7997,7 @@
         <v>428</v>
       </c>
       <c r="B429">
-        <v>0.007910465860422601</v>
+        <v>0.0100786964712325</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -8005,7 +8005,7 @@
         <v>429</v>
       </c>
       <c r="B430">
-        <v>-3.337517426058786e-05</v>
+        <v>0.003168693446554902</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -8013,7 +8013,7 @@
         <v>430</v>
       </c>
       <c r="B431">
-        <v>0.004176928878694262</v>
+        <v>0.009223052960716885</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -8021,7 +8021,7 @@
         <v>431</v>
       </c>
       <c r="B432">
-        <v>0.007020021320092816</v>
+        <v>0.00799794278872744</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -8029,7 +8029,7 @@
         <v>432</v>
       </c>
       <c r="B433">
-        <v>0.004047876993672032</v>
+        <v>0.005459540956635027</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -8037,7 +8037,7 @@
         <v>433</v>
       </c>
       <c r="B434">
-        <v>-0.007013642225483409</v>
+        <v>-0.01371157965684747</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -8045,7 +8045,7 @@
         <v>434</v>
       </c>
       <c r="B435">
-        <v>-0.003294669025580149</v>
+        <v>0.0002673501872694631</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -8053,7 +8053,7 @@
         <v>435</v>
       </c>
       <c r="B436">
-        <v>0.008765062058861834</v>
+        <v>0.0008580465099313542</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -8061,7 +8061,7 @@
         <v>436</v>
       </c>
       <c r="B437">
-        <v>-0.0006998869419407908</v>
+        <v>0.004551018745286651</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -8069,7 +8069,7 @@
         <v>437</v>
       </c>
       <c r="B438">
-        <v>-0.01906046460255232</v>
+        <v>-0.02069646442396931</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -8077,7 +8077,7 @@
         <v>438</v>
       </c>
       <c r="B439">
-        <v>0.0130351429668928</v>
+        <v>0.0127067243229615</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -8085,7 +8085,7 @@
         <v>439</v>
       </c>
       <c r="B440">
-        <v>0.00427880921571002</v>
+        <v>0.01250956198808348</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -8093,7 +8093,7 @@
         <v>440</v>
       </c>
       <c r="B441">
-        <v>0.00667358940127755</v>
+        <v>0.005545187409780498</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -8101,7 +8101,7 @@
         <v>441</v>
       </c>
       <c r="B442">
-        <v>0.003604629563436381</v>
+        <v>0.001813131281603964</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -8109,7 +8109,7 @@
         <v>442</v>
       </c>
       <c r="B443">
-        <v>-0.009159883349444812</v>
+        <v>-0.004301405345392015</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -8117,7 +8117,7 @@
         <v>443</v>
       </c>
       <c r="B444">
-        <v>-0.00205582550246454</v>
+        <v>-0.001832041559792017</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -8125,7 +8125,7 @@
         <v>444</v>
       </c>
       <c r="B445">
-        <v>0.005711272558860159</v>
+        <v>0.004613298944523928</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -8133,7 +8133,7 @@
         <v>445</v>
       </c>
       <c r="B446">
-        <v>-0.002488894637431711</v>
+        <v>0.006690690237416981</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -8141,7 +8141,7 @@
         <v>446</v>
       </c>
       <c r="B447">
-        <v>-0.0140520014167632</v>
+        <v>-0.01873824835063921</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -8149,7 +8149,7 @@
         <v>447</v>
       </c>
       <c r="B448">
-        <v>0.01219114706646334</v>
+        <v>0.01263065564608686</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -8157,7 +8157,7 @@
         <v>448</v>
       </c>
       <c r="B449">
-        <v>0.001608057147790144</v>
+        <v>0.002099282639519376</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -8165,7 +8165,7 @@
         <v>449</v>
       </c>
       <c r="B450">
-        <v>-0.01393808904162343</v>
+        <v>-0.01394468144359241</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -8173,7 +8173,7 @@
         <v>450</v>
       </c>
       <c r="B451">
-        <v>-0.004693213730739327</v>
+        <v>-0.004375109155158399</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -8181,7 +8181,7 @@
         <v>451</v>
       </c>
       <c r="B452">
-        <v>0.004471652231348427</v>
+        <v>0.004563905975287728</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -8189,7 +8189,7 @@
         <v>452</v>
       </c>
       <c r="B453">
-        <v>0.01089146966493866</v>
+        <v>0.01001385125199193</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -8197,7 +8197,7 @@
         <v>453</v>
       </c>
       <c r="B454">
-        <v>-0.002000747090225238</v>
+        <v>-0.002663182823735278</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -8205,7 +8205,7 @@
         <v>454</v>
       </c>
       <c r="B455">
-        <v>-0.006089478249297759</v>
+        <v>-0.006255967975307492</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -8213,7 +8213,7 @@
         <v>455</v>
       </c>
       <c r="B456">
-        <v>0.008205435118297471</v>
+        <v>0.008251102183863906</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -8221,7 +8221,7 @@
         <v>456</v>
       </c>
       <c r="B457">
-        <v>0.01202536016825763</v>
+        <v>0.01086967458789766</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -8229,7 +8229,7 @@
         <v>457</v>
       </c>
       <c r="B458">
-        <v>-0.002248064343932864</v>
+        <v>-0.002339296745793913</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -8237,7 +8237,7 @@
         <v>458</v>
       </c>
       <c r="B459">
-        <v>0.004458535389063155</v>
+        <v>0.004507763524757208</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -8245,7 +8245,7 @@
         <v>459</v>
       </c>
       <c r="B460">
-        <v>-0.006394599648513144</v>
+        <v>-0.007063640409809994</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -8253,7 +8253,7 @@
         <v>460</v>
       </c>
       <c r="B461">
-        <v>-0.002415230080630702</v>
+        <v>-0.002677884250509504</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -8261,7 +8261,7 @@
         <v>461</v>
       </c>
       <c r="B462">
-        <v>0.007072895097921048</v>
+        <v>0.00691830375114514</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -8269,7 +8269,7 @@
         <v>462</v>
       </c>
       <c r="B463">
-        <v>0.001424609884629972</v>
+        <v>0.002075721528460033</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -8293,7 +8293,7 @@
         <v>465</v>
       </c>
       <c r="B466">
-        <v>0.01696022789295003</v>
+        <v>0.01734853462773648</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -8301,7 +8301,7 @@
         <v>466</v>
       </c>
       <c r="B467">
-        <v>-0.001344743838886632</v>
+        <v>-0.001389870504980183</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -8309,7 +8309,7 @@
         <v>467</v>
       </c>
       <c r="B468">
-        <v>-0.005224622881902748</v>
+        <v>-0.00477056169310182</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -8317,7 +8317,7 @@
         <v>468</v>
       </c>
       <c r="B469">
-        <v>0.005119859319563127</v>
+        <v>0.007901421384909601</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -8325,7 +8325,7 @@
         <v>469</v>
       </c>
       <c r="B470">
-        <v>-0.0001223216812901527</v>
+        <v>-0.002081870499189782</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -8333,7 +8333,7 @@
         <v>470</v>
       </c>
       <c r="B471">
-        <v>0.007015371743515914</v>
+        <v>0.0120519638107919</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -8341,7 +8341,7 @@
         <v>471</v>
       </c>
       <c r="B472">
-        <v>-0.01140932004603683</v>
+        <v>-0.0117396294593755</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -8349,7 +8349,7 @@
         <v>472</v>
       </c>
       <c r="B473">
-        <v>0.005723993991301135</v>
+        <v>0.009486919208634526</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -8357,7 +8357,7 @@
         <v>473</v>
       </c>
       <c r="B474">
-        <v>-0.01256222272087969</v>
+        <v>-0.008815145049010565</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -8365,7 +8365,7 @@
         <v>474</v>
       </c>
       <c r="B475">
-        <v>0.001716866552244969</v>
+        <v>0.01396876406319575</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -8373,7 +8373,7 @@
         <v>475</v>
       </c>
       <c r="B476">
-        <v>0.01321758305755672</v>
+        <v>0.01235996342839991</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -8381,7 +8381,7 @@
         <v>476</v>
       </c>
       <c r="B477">
-        <v>-0.000913542902906932</v>
+        <v>-0.00460850716371587</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -8389,7 +8389,7 @@
         <v>477</v>
       </c>
       <c r="B478">
-        <v>-0.003739668008884998</v>
+        <v>0.000138720417604142</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -8397,7 +8397,7 @@
         <v>478</v>
       </c>
       <c r="B479">
-        <v>-0.005355069097575037</v>
+        <v>0.0001591570758637578</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -8405,7 +8405,7 @@
         <v>479</v>
       </c>
       <c r="B480">
-        <v>0.01091917382170857</v>
+        <v>0.01195147880784392</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -8413,7 +8413,7 @@
         <v>480</v>
       </c>
       <c r="B481">
-        <v>0.002220683512299189</v>
+        <v>0.009279836152032149</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -8421,7 +8421,7 @@
         <v>481</v>
       </c>
       <c r="B482">
-        <v>0.009014377270866314</v>
+        <v>0.0118937186517419</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -8429,7 +8429,7 @@
         <v>482</v>
       </c>
       <c r="B483">
-        <v>-0.003576481901054671</v>
+        <v>0.0003130902370272514</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -8437,7 +8437,7 @@
         <v>483</v>
       </c>
       <c r="B484">
-        <v>0.004667834036229853</v>
+        <v>0.002907424737198247</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -8445,7 +8445,7 @@
         <v>484</v>
       </c>
       <c r="B485">
-        <v>-0.002765171722620743</v>
+        <v>-0.003427521145885026</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -8453,7 +8453,7 @@
         <v>485</v>
       </c>
       <c r="B486">
-        <v>-0.009208175897300868</v>
+        <v>-0.01140131818317364</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -8461,7 +8461,7 @@
         <v>486</v>
       </c>
       <c r="B487">
-        <v>-0.002747992156772462</v>
+        <v>-0.002049207458404842</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -8469,7 +8469,7 @@
         <v>487</v>
       </c>
       <c r="B488">
-        <v>-0.01315893702360221</v>
+        <v>-0.017255697268464</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -8477,7 +8477,7 @@
         <v>488</v>
       </c>
       <c r="B489">
-        <v>-0.02195500758938863</v>
+        <v>-0.0244958893740075</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -8485,7 +8485,7 @@
         <v>489</v>
       </c>
       <c r="B490">
-        <v>0.001090151455984295</v>
+        <v>0.004160825763233869</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -8845,7 +8845,7 @@
         <v>534</v>
       </c>
       <c r="B535">
-        <v>-0.03050510557561094</v>
+        <v>-0.03117629345986642</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -8853,7 +8853,7 @@
         <v>535</v>
       </c>
       <c r="B536">
-        <v>0.01710349028842807</v>
+        <v>0.01709835137188322</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -8861,7 +8861,7 @@
         <v>536</v>
       </c>
       <c r="B537">
-        <v>0.006497034514087538</v>
+        <v>0.006076977176665373</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -8869,7 +8869,7 @@
         <v>537</v>
       </c>
       <c r="B538">
-        <v>-0.01542238085017372</v>
+        <v>-0.01437692652130688</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -8877,7 +8877,7 @@
         <v>538</v>
       </c>
       <c r="B539">
-        <v>0.03287034735929253</v>
+        <v>0.03339924641720725</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -8885,7 +8885,7 @@
         <v>539</v>
       </c>
       <c r="B540">
-        <v>-0.01532561714161366</v>
+        <v>-0.01564063749903171</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -8893,7 +8893,7 @@
         <v>540</v>
       </c>
       <c r="B541">
-        <v>0.01036274291646036</v>
+        <v>0.01095565417002528</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -8901,7 +8901,7 @@
         <v>541</v>
       </c>
       <c r="B542">
-        <v>0.002921496723360535</v>
+        <v>0.002937102435224219</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -8909,7 +8909,7 @@
         <v>542</v>
       </c>
       <c r="B543">
-        <v>-0.004000991593358433</v>
+        <v>-0.003806006164218408</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -8917,7 +8917,7 @@
         <v>543</v>
       </c>
       <c r="B544">
-        <v>0.01474061969101142</v>
+        <v>0.01526052531535995</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -8925,7 +8925,7 @@
         <v>544</v>
       </c>
       <c r="B545">
-        <v>0.007135424303458618</v>
+        <v>0.006042392536474295</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -8933,7 +8933,7 @@
         <v>545</v>
       </c>
       <c r="B546">
-        <v>-0.007380950912715519</v>
+        <v>-0.006977796159175922</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -8941,7 +8941,7 @@
         <v>546</v>
       </c>
       <c r="B547">
-        <v>-0.01439370944680855</v>
+        <v>-0.01312381030797645</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -8949,7 +8949,7 @@
         <v>547</v>
       </c>
       <c r="B548">
-        <v>0.00465134427468794</v>
+        <v>0.004629083566280188</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -8957,7 +8957,7 @@
         <v>548</v>
       </c>
       <c r="B549">
-        <v>-0.016101008370579</v>
+        <v>-0.01572601225921398</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -8965,7 +8965,7 @@
         <v>549</v>
       </c>
       <c r="B550">
-        <v>-0.003624964660597318</v>
+        <v>-0.003677914703552437</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -8973,7 +8973,7 @@
         <v>550</v>
       </c>
       <c r="B551">
-        <v>-0.001632854067200352</v>
+        <v>-0.001391928335324699</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -8981,7 +8981,7 @@
         <v>551</v>
       </c>
       <c r="B552">
-        <v>-0.0008907741208061951</v>
+        <v>-0.001234904606667537</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -8989,7 +8989,7 @@
         <v>552</v>
       </c>
       <c r="B553">
-        <v>-0.02291236544485972</v>
+        <v>-0.02380528631560508</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -8997,7 +8997,7 @@
         <v>553</v>
       </c>
       <c r="B554">
-        <v>-0.002651354315044514</v>
+        <v>-0.003486175080405147</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -9005,7 +9005,7 @@
         <v>554</v>
       </c>
       <c r="B555">
-        <v>0.02160943385771307</v>
+        <v>0.02092930539330273</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -9013,7 +9013,7 @@
         <v>555</v>
       </c>
       <c r="B556">
-        <v>-0.005689527050156606</v>
+        <v>-0.005702742834092686</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -9021,7 +9021,7 @@
         <v>556</v>
       </c>
       <c r="B557">
-        <v>0.01535504220812387</v>
+        <v>0.01534918727852504</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -9029,7 +9029,7 @@
         <v>557</v>
       </c>
       <c r="B558">
-        <v>0.02026163141319123</v>
+        <v>0.02027763305129071</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -9037,7 +9037,7 @@
         <v>558</v>
       </c>
       <c r="B559">
-        <v>0.006049791887646282</v>
+        <v>0.006041994690754879</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -9045,7 +9045,7 @@
         <v>559</v>
       </c>
       <c r="B560">
-        <v>0.008879886134895775</v>
+        <v>0.008877474470875262</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -9053,7 +9053,7 @@
         <v>560</v>
       </c>
       <c r="B561">
-        <v>0.0103162617024837</v>
+        <v>0.01032466149242613</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -9061,7 +9061,7 @@
         <v>561</v>
       </c>
       <c r="B562">
-        <v>0.006924824470534327</v>
+        <v>0.006924691433099521</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -9069,7 +9069,7 @@
         <v>562</v>
       </c>
       <c r="B563">
-        <v>-0.004262215958381409</v>
+        <v>-0.004259829894197311</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -9077,7 +9077,7 @@
         <v>563</v>
       </c>
       <c r="B564">
-        <v>-0.007184176532683588</v>
+        <v>-0.007179905692015156</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -9085,7 +9085,7 @@
         <v>564</v>
       </c>
       <c r="B565">
-        <v>-0.0003751068510194951</v>
+        <v>-0.0003760494762214544</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -9093,7 +9093,7 @@
         <v>565</v>
       </c>
       <c r="B566">
-        <v>0.006461428615453229</v>
+        <v>0.006463980762295731</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -9101,7 +9101,7 @@
         <v>566</v>
       </c>
       <c r="B567">
-        <v>0.0005528006931740608</v>
+        <v>0.0005467002549938813</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -9109,7 +9109,7 @@
         <v>567</v>
       </c>
       <c r="B568">
-        <v>0.0002856435049501223</v>
+        <v>0.000285496303205295</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -9117,7 +9117,7 @@
         <v>568</v>
       </c>
       <c r="B569">
-        <v>0.0005566804414594395</v>
+        <v>0.0005562038252528662</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -9125,7 +9125,7 @@
         <v>569</v>
       </c>
       <c r="B570">
-        <v>-0.01686455971665527</v>
+        <v>-0.0168701045790404</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -9133,7 +9133,7 @@
         <v>570</v>
       </c>
       <c r="B571">
-        <v>0.02699944839074372</v>
+        <v>0.02699412355936357</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -9141,7 +9141,7 @@
         <v>571</v>
       </c>
       <c r="B572">
-        <v>0.01269079401460028</v>
+        <v>0.01268367801340077</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -9149,7 +9149,7 @@
         <v>572</v>
       </c>
       <c r="B573">
-        <v>-0.009603413254273217</v>
+        <v>-0.009598079857101503</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -9157,7 +9157,7 @@
         <v>573</v>
       </c>
       <c r="B574">
-        <v>-0.009735562885395302</v>
+        <v>-0.009734387295311404</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -9165,7 +9165,7 @@
         <v>574</v>
       </c>
       <c r="B575">
-        <v>0.02362867979669095</v>
+        <v>0.02363411311869319</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -9173,7 +9173,7 @@
         <v>575</v>
       </c>
       <c r="B576">
-        <v>-0.01395335771373246</v>
+        <v>-0.01399182482612569</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -9181,7 +9181,7 @@
         <v>576</v>
       </c>
       <c r="B577">
-        <v>0.002533568693337271</v>
+        <v>0.002538422427617879</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -9189,7 +9189,7 @@
         <v>577</v>
       </c>
       <c r="B578">
-        <v>0</v>
+        <v>-0.01526932620966037</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -9197,7 +9197,7 @@
         <v>578</v>
       </c>
       <c r="B579">
-        <v>0</v>
+        <v>0.007638362953678493</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -9205,7 +9205,7 @@
         <v>579</v>
       </c>
       <c r="B580">
-        <v>0</v>
+        <v>-0.001917942416693646</v>
       </c>
     </row>
     <row r="581" spans="1:2">
@@ -9213,7 +9213,7 @@
         <v>580</v>
       </c>
       <c r="B581">
-        <v>0</v>
+        <v>-0.01046957179251802</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -9221,7 +9221,7 @@
         <v>581</v>
       </c>
       <c r="B582">
-        <v>0</v>
+        <v>0.0173002843258399</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -9229,7 +9229,7 @@
         <v>582</v>
       </c>
       <c r="B583">
-        <v>0</v>
+        <v>-0.01499838339125777</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -9237,7 +9237,7 @@
         <v>583</v>
       </c>
       <c r="B584">
-        <v>0</v>
+        <v>-0.00526920420650739</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -9245,7 +9245,7 @@
         <v>584</v>
       </c>
       <c r="B585">
-        <v>0</v>
+        <v>-0.00273747820513563</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -9253,7 +9253,7 @@
         <v>585</v>
       </c>
       <c r="B586">
-        <v>0</v>
+        <v>-0.01125733161557736</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -9261,7 +9261,7 @@
         <v>586</v>
       </c>
       <c r="B587">
-        <v>0</v>
+        <v>-0.02076153529428358</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -9269,7 +9269,7 @@
         <v>587</v>
       </c>
       <c r="B588">
-        <v>0</v>
+        <v>0.01398905346916599</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -9277,7 +9277,7 @@
         <v>588</v>
       </c>
       <c r="B589">
-        <v>0</v>
+        <v>0.01353053526880421</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -9285,7 +9285,7 @@
         <v>589</v>
       </c>
       <c r="B590">
-        <v>0</v>
+        <v>0.009523967913068598</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -9293,7 +9293,7 @@
         <v>590</v>
       </c>
       <c r="B591">
-        <v>0</v>
+        <v>0.008101293059722882</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -9301,7 +9301,7 @@
         <v>591</v>
       </c>
       <c r="B592">
-        <v>0</v>
+        <v>0.005407450395279813</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -9309,7 +9309,7 @@
         <v>592</v>
       </c>
       <c r="B593">
-        <v>0</v>
+        <v>-0.003127576080009327</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -9317,7 +9317,7 @@
         <v>593</v>
       </c>
       <c r="B594">
-        <v>0</v>
+        <v>0.005711687139948456</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -9325,7 +9325,7 @@
         <v>594</v>
       </c>
       <c r="B595">
-        <v>0</v>
+        <v>-0.004348568437995174</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -9349,7 +9349,7 @@
         <v>597</v>
       </c>
       <c r="B598">
-        <v>0</v>
+        <v>0.004221289995859028</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -9357,7 +9357,7 @@
         <v>598</v>
       </c>
       <c r="B599">
-        <v>0.01479026488508034</v>
+        <v>0.0147697735357462</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -9365,7 +9365,7 @@
         <v>599</v>
       </c>
       <c r="B600">
-        <v>-0.00464246680385296</v>
+        <v>-0.004435514461514786</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -9373,7 +9373,7 @@
         <v>600</v>
       </c>
       <c r="B601">
-        <v>9.499824315610116e-05</v>
+        <v>1.035971279381956e-05</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -9381,7 +9381,7 @@
         <v>601</v>
       </c>
       <c r="B602">
-        <v>0.02229114970357373</v>
+        <v>0.02232304586414684</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -9389,7 +9389,7 @@
         <v>602</v>
       </c>
       <c r="B603">
-        <v>-0.006214955894954326</v>
+        <v>-0.006163622004869764</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -9397,7 +9397,7 @@
         <v>603</v>
       </c>
       <c r="B604">
-        <v>-0.01543475756709353</v>
+        <v>-0.01548890669751081</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -9405,7 +9405,7 @@
         <v>604</v>
       </c>
       <c r="B605">
-        <v>-0.01425217092958384</v>
+        <v>-0.01423390649708376</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -9413,7 +9413,7 @@
         <v>605</v>
       </c>
       <c r="B606">
-        <v>0.004202188903348247</v>
+        <v>0.004136158792488021</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -9421,7 +9421,7 @@
         <v>606</v>
       </c>
       <c r="B607">
-        <v>-0.02059641530868985</v>
+        <v>-0.02060921500234867</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -9429,7 +9429,7 @@
         <v>607</v>
       </c>
       <c r="B608">
-        <v>-0.0002104005987966155</v>
+        <v>-0.000199065234922118</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -9437,7 +9437,7 @@
         <v>608</v>
       </c>
       <c r="B609">
-        <v>0.01320037960071659</v>
+        <v>0.01325126048389678</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -9445,7 +9445,7 @@
         <v>609</v>
       </c>
       <c r="B610">
-        <v>0.006438038642188915</v>
+        <v>0.006435798478630168</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -9453,7 +9453,7 @@
         <v>610</v>
       </c>
       <c r="B611">
-        <v>-0.01661071552687203</v>
+        <v>-0.0165525172014674</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -9461,7 +9461,7 @@
         <v>611</v>
       </c>
       <c r="B612">
-        <v>-0.01429781846243947</v>
+        <v>-0.01427467978022418</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -9469,7 +9469,7 @@
         <v>612</v>
       </c>
       <c r="B613">
-        <v>0.009180082911869142</v>
+        <v>0.009258362986464794</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -9477,7 +9477,7 @@
         <v>613</v>
       </c>
       <c r="B614">
-        <v>0.009006418083350494</v>
+        <v>0.008980969922696336</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -9485,7 +9485,7 @@
         <v>614</v>
       </c>
       <c r="B615">
-        <v>0.009227467868866529</v>
+        <v>0.009216174792389559</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -9493,7 +9493,7 @@
         <v>615</v>
       </c>
       <c r="B616">
-        <v>0.001909047010011417</v>
+        <v>0.00191690120705914</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -9501,7 +9501,7 @@
         <v>616</v>
       </c>
       <c r="B617">
-        <v>-0.002406698145102001</v>
+        <v>-0.002379937735604283</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -9509,7 +9509,7 @@
         <v>617</v>
       </c>
       <c r="B618">
-        <v>0.01398580018839931</v>
+        <v>0.01398179532476694</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -9517,7 +9517,7 @@
         <v>618</v>
       </c>
       <c r="B619">
-        <v>-0.008220845752922349</v>
+        <v>-0.00824913519680304</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -9525,7 +9525,7 @@
         <v>619</v>
       </c>
       <c r="B620">
-        <v>-0.01171004451268105</v>
+        <v>-0.01175094770043986</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -9533,7 +9533,7 @@
         <v>620</v>
       </c>
       <c r="B621">
-        <v>-0.01716603056943562</v>
+        <v>-0.01546554033026903</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -9541,7 +9541,7 @@
         <v>621</v>
       </c>
       <c r="B622">
-        <v>-0.001374052415502147</v>
+        <v>-0.001984645456212165</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -9549,7 +9549,7 @@
         <v>622</v>
       </c>
       <c r="B623">
-        <v>-0.01681912881333595</v>
+        <v>-0.01746483559108738</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -9557,7 +9557,7 @@
         <v>623</v>
       </c>
       <c r="B624">
-        <v>-0.03385568421920513</v>
+        <v>-0.03585122750301632</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -9565,7 +9565,7 @@
         <v>624</v>
       </c>
       <c r="B625">
-        <v>-0.01118259727034965</v>
+        <v>-0.01289006372461963</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -9573,7 +9573,7 @@
         <v>625</v>
       </c>
       <c r="B626">
-        <v>0.003780626422652885</v>
+        <v>0.006986396087247261</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -9581,7 +9581,7 @@
         <v>626</v>
       </c>
       <c r="B627">
-        <v>0.008766039860616536</v>
+        <v>0.008944462946750789</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -9589,7 +9589,7 @@
         <v>627</v>
       </c>
       <c r="B628">
-        <v>-0.02972692097608642</v>
+        <v>-0.03039074541119671</v>
       </c>
     </row>
     <row r="629" spans="1:2">
@@ -9597,7 +9597,7 @@
         <v>628</v>
       </c>
       <c r="B629">
-        <v>0.01847892621714291</v>
+        <v>0.01572267536575781</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -9605,7 +9605,7 @@
         <v>629</v>
       </c>
       <c r="B630">
-        <v>-0.03522901606851888</v>
+        <v>-0.03766677181896236</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -9629,7 +9629,7 @@
         <v>632</v>
       </c>
       <c r="B633">
-        <v>-0.003992074460924572</v>
+        <v>-0.00196164201691508</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -9637,7 +9637,7 @@
         <v>633</v>
       </c>
       <c r="B634">
-        <v>0.001867797694831067</v>
+        <v>0.005845560749023986</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -9645,7 +9645,7 @@
         <v>634</v>
       </c>
       <c r="B635">
-        <v>0.03297722284511162</v>
+        <v>0.01964539216542415</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -9653,7 +9653,7 @@
         <v>635</v>
       </c>
       <c r="B636">
-        <v>-0.01533156875028833</v>
+        <v>-0.01703238022784533</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -9661,7 +9661,7 @@
         <v>636</v>
       </c>
       <c r="B637">
-        <v>0.009478050902318399</v>
+        <v>0.01521378982609248</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -9669,7 +9669,7 @@
         <v>637</v>
       </c>
       <c r="B638">
-        <v>-0.02419779310786013</v>
+        <v>-0.02071268157612554</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -9677,7 +9677,7 @@
         <v>638</v>
       </c>
       <c r="B639">
-        <v>-0.0003408528446979944</v>
+        <v>0.0006427675067068874</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -9685,7 +9685,7 @@
         <v>639</v>
       </c>
       <c r="B640">
-        <v>0.03462626547610982</v>
+        <v>0.03712251086922319</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -10029,7 +10029,7 @@
         <v>682</v>
       </c>
       <c r="B683">
-        <v>0.01473717957270566</v>
+        <v>0.01459251588427904</v>
       </c>
     </row>
     <row r="684" spans="1:2">
@@ -10037,7 +10037,7 @@
         <v>683</v>
       </c>
       <c r="B684">
-        <v>-0.005808267571241656</v>
+        <v>-0.005794025665422123</v>
       </c>
     </row>
     <row r="685" spans="1:2">
@@ -10045,7 +10045,7 @@
         <v>684</v>
       </c>
       <c r="B685">
-        <v>-0.01396231694295016</v>
+        <v>-0.01400056408384815</v>
       </c>
     </row>
     <row r="686" spans="1:2">
@@ -10053,7 +10053,7 @@
         <v>685</v>
       </c>
       <c r="B686">
-        <v>0.0154026268831196</v>
+        <v>0.01470308168844805</v>
       </c>
     </row>
     <row r="687" spans="1:2">
@@ -10061,7 +10061,7 @@
         <v>686</v>
       </c>
       <c r="B687">
-        <v>-0.0165966490930371</v>
+        <v>-0.01599896464805653</v>
       </c>
     </row>
     <row r="688" spans="1:2">
@@ -10069,7 +10069,7 @@
         <v>687</v>
       </c>
       <c r="B688">
-        <v>0.004458013314086637</v>
+        <v>0.004409268007881438</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -10077,7 +10077,7 @@
         <v>688</v>
       </c>
       <c r="B689">
-        <v>-0.007417690965188053</v>
+        <v>-0.007169032469887527</v>
       </c>
     </row>
     <row r="690" spans="1:2">
@@ -10085,7 +10085,7 @@
         <v>689</v>
       </c>
       <c r="B690">
-        <v>-0.002312627392436221</v>
+        <v>-0.002063380732471037</v>
       </c>
     </row>
     <row r="691" spans="1:2">
@@ -10093,7 +10093,7 @@
         <v>690</v>
       </c>
       <c r="B691">
-        <v>0.02381641057941881</v>
+        <v>0.0236477178484191</v>
       </c>
     </row>
     <row r="692" spans="1:2">
@@ -10101,7 +10101,7 @@
         <v>691</v>
       </c>
       <c r="B692">
-        <v>-0.009288862068409932</v>
+        <v>-0.009176148769218994</v>
       </c>
     </row>
     <row r="693" spans="1:2">
@@ -10109,7 +10109,7 @@
         <v>692</v>
       </c>
       <c r="B693">
-        <v>-0.003327293273029658</v>
+        <v>-0.003083666636925857</v>
       </c>
     </row>
     <row r="694" spans="1:2">
@@ -10117,7 +10117,7 @@
         <v>693</v>
       </c>
       <c r="B694">
-        <v>0.005022144812887268</v>
+        <v>0.005268452180647103</v>
       </c>
     </row>
     <row r="695" spans="1:2">
@@ -10125,7 +10125,7 @@
         <v>694</v>
       </c>
       <c r="B695">
-        <v>-0.005088703636545473</v>
+        <v>-0.004813398155718169</v>
       </c>
     </row>
     <row r="696" spans="1:2">
@@ -10133,7 +10133,7 @@
         <v>695</v>
       </c>
       <c r="B696">
-        <v>0.00307843202038404</v>
+        <v>0.003008616063848725</v>
       </c>
     </row>
     <row r="697" spans="1:2">
@@ -10141,7 +10141,7 @@
         <v>696</v>
       </c>
       <c r="B697">
-        <v>0.000440455934884881</v>
+        <v>1.442702884684241e-05</v>
       </c>
     </row>
     <row r="698" spans="1:2">
@@ -10149,7 +10149,7 @@
         <v>697</v>
       </c>
       <c r="B698">
-        <v>0.003523549564638667</v>
+        <v>0.002587596616753569</v>
       </c>
     </row>
     <row r="699" spans="1:2">
@@ -10157,7 +10157,7 @@
         <v>698</v>
       </c>
       <c r="B699">
-        <v>-0.004301481024419206</v>
+        <v>-0.003861486363072548</v>
       </c>
     </row>
     <row r="700" spans="1:2">
@@ -10165,7 +10165,7 @@
         <v>699</v>
       </c>
       <c r="B700">
-        <v>0.01264621631634857</v>
+        <v>0.01258298437172354</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -10173,7 +10173,7 @@
         <v>700</v>
       </c>
       <c r="B701">
-        <v>-0.003036310992523167</v>
+        <v>-0.003451465810279667</v>
       </c>
     </row>
     <row r="702" spans="1:2">
@@ -10181,7 +10181,7 @@
         <v>701</v>
       </c>
       <c r="B702">
-        <v>-0.02212450147141575</v>
+        <v>-0.02213636022744241</v>
       </c>
     </row>
     <row r="703" spans="1:2">
@@ -10189,7 +10189,7 @@
         <v>702</v>
       </c>
       <c r="B703">
-        <v>-0.01345306324848651</v>
+        <v>-0.01439230499787508</v>
       </c>
     </row>
     <row r="704" spans="1:2">
@@ -10197,7 +10197,7 @@
         <v>703</v>
       </c>
       <c r="B704">
-        <v>0.0009401387785182843</v>
+        <v>-0.001991436138101161</v>
       </c>
     </row>
     <row r="705" spans="1:2">
@@ -10205,7 +10205,7 @@
         <v>704</v>
       </c>
       <c r="B705">
-        <v>-0.01416899500372306</v>
+        <v>-0.01319701553016763</v>
       </c>
     </row>
     <row r="706" spans="1:2">
@@ -10213,7 +10213,7 @@
         <v>705</v>
       </c>
       <c r="B706">
-        <v>-0.008481767031883582</v>
+        <v>-0.01196252988523263</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -10221,7 +10221,7 @@
         <v>706</v>
       </c>
       <c r="B707">
-        <v>-0.001079812570976928</v>
+        <v>-0.001881440473235819</v>
       </c>
     </row>
     <row r="708" spans="1:2">
@@ -10229,7 +10229,7 @@
         <v>707</v>
       </c>
       <c r="B708">
-        <v>0.005282704225423667</v>
+        <v>0.003043586775900732</v>
       </c>
     </row>
     <row r="709" spans="1:2">
@@ -10237,7 +10237,7 @@
         <v>708</v>
       </c>
       <c r="B709">
-        <v>-0.002016523566982925</v>
+        <v>-0.003453973724464327</v>
       </c>
     </row>
     <row r="710" spans="1:2">
@@ -10245,7 +10245,7 @@
         <v>709</v>
       </c>
       <c r="B710">
-        <v>0.01540934031335699</v>
+        <v>0.01471344306548104</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -10253,7 +10253,7 @@
         <v>710</v>
       </c>
       <c r="B711">
-        <v>-0.005394611351686317</v>
+        <v>-0.007262264726057425</v>
       </c>
     </row>
     <row r="712" spans="1:2">
@@ -10261,7 +10261,7 @@
         <v>711</v>
       </c>
       <c r="B712">
-        <v>-0.006675309284880026</v>
+        <v>-0.01252730782943472</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -10269,7 +10269,7 @@
         <v>712</v>
       </c>
       <c r="B713">
-        <v>-0.003163702736278585</v>
+        <v>-0.001230425309633718</v>
       </c>
     </row>
     <row r="714" spans="1:2">
@@ -10277,7 +10277,7 @@
         <v>713</v>
       </c>
       <c r="B714">
-        <v>0.01085203905363003</v>
+        <v>0.009118461738196484</v>
       </c>
     </row>
     <row r="715" spans="1:2">
@@ -10285,7 +10285,7 @@
         <v>714</v>
       </c>
       <c r="B715">
-        <v>-0.008734024389682796</v>
+        <v>-0.01137493235388609</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -10293,7 +10293,7 @@
         <v>715</v>
       </c>
       <c r="B716">
-        <v>0.005443597652127484</v>
+        <v>0.005043471761443157</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -10301,7 +10301,7 @@
         <v>716</v>
       </c>
       <c r="B717">
-        <v>-0.002651912151930644</v>
+        <v>-0.006108978235852505</v>
       </c>
     </row>
     <row r="718" spans="1:2">
@@ -10309,7 +10309,7 @@
         <v>717</v>
       </c>
       <c r="B718">
-        <v>0.02642160365931128</v>
+        <v>0.04157570208850378</v>
       </c>
     </row>
     <row r="719" spans="1:2">
@@ -10317,7 +10317,7 @@
         <v>718</v>
       </c>
       <c r="B719">
-        <v>0.002172725819649507</v>
+        <v>0.007076704410167451</v>
       </c>
     </row>
     <row r="720" spans="1:2">
@@ -10325,7 +10325,7 @@
         <v>719</v>
       </c>
       <c r="B720">
-        <v>0.02115305763528652</v>
+        <v>0.02057179435243475</v>
       </c>
     </row>
     <row r="721" spans="1:2">
@@ -10333,7 +10333,7 @@
         <v>720</v>
       </c>
       <c r="B721">
-        <v>0.008668028094780275</v>
+        <v>0.008638829593568164</v>
       </c>
     </row>
     <row r="722" spans="1:2">
@@ -10341,7 +10341,7 @@
         <v>721</v>
       </c>
       <c r="B722">
-        <v>0.007096238786892188</v>
+        <v>0.00410447233537503</v>
       </c>
     </row>
     <row r="723" spans="1:2">
@@ -10349,7 +10349,7 @@
         <v>722</v>
       </c>
       <c r="B723">
-        <v>0.003590441874699382</v>
+        <v>0.005549157556904744</v>
       </c>
     </row>
     <row r="724" spans="1:2">
@@ -10373,7 +10373,7 @@
         <v>725</v>
       </c>
       <c r="B726">
-        <v>-0.001111359918843731</v>
+        <v>-0.0009209411297593175</v>
       </c>
     </row>
     <row r="727" spans="1:2">
@@ -10381,7 +10381,7 @@
         <v>726</v>
       </c>
       <c r="B727">
-        <v>-0.002172686349804672</v>
+        <v>-0.001672463325231728</v>
       </c>
     </row>
     <row r="728" spans="1:2">
@@ -10389,7 +10389,7 @@
         <v>727</v>
       </c>
       <c r="B728">
-        <v>-0.006243254865094377</v>
+        <v>-0.006597571137319932</v>
       </c>
     </row>
     <row r="729" spans="1:2">
@@ -10397,7 +10397,7 @@
         <v>728</v>
       </c>
       <c r="B729">
-        <v>0.01148818165531983</v>
+        <v>0.0105841649703601</v>
       </c>
     </row>
     <row r="730" spans="1:2">
@@ -10405,7 +10405,7 @@
         <v>729</v>
       </c>
       <c r="B730">
-        <v>0.002455772489182124</v>
+        <v>0.002465732642530429</v>
       </c>
     </row>
     <row r="731" spans="1:2">
@@ -10413,7 +10413,7 @@
         <v>730</v>
       </c>
       <c r="B731">
-        <v>0.000542482177897121</v>
+        <v>0.0003634614117804081</v>
       </c>
     </row>
     <row r="732" spans="1:2">
@@ -10421,7 +10421,7 @@
         <v>731</v>
       </c>
       <c r="B732">
-        <v>0.0004826467535082177</v>
+        <v>0.001685891469422874</v>
       </c>
     </row>
     <row r="733" spans="1:2">
@@ -10429,7 +10429,7 @@
         <v>732</v>
       </c>
       <c r="B733">
-        <v>-0.01416861319922908</v>
+        <v>-0.01446668185225377</v>
       </c>
     </row>
     <row r="734" spans="1:2">
@@ -10437,7 +10437,7 @@
         <v>733</v>
       </c>
       <c r="B734">
-        <v>-0.005887864283729981</v>
+        <v>-0.004888822851546452</v>
       </c>
     </row>
     <row r="735" spans="1:2">
@@ -10445,7 +10445,7 @@
         <v>734</v>
       </c>
       <c r="B735">
-        <v>-0.0005841456086805499</v>
+        <v>-0.0004692630826115005</v>
       </c>
     </row>
     <row r="736" spans="1:2">
@@ -10453,7 +10453,7 @@
         <v>735</v>
       </c>
       <c r="B736">
-        <v>-0.001290542810963575</v>
+        <v>-0.0009231437096475397</v>
       </c>
     </row>
     <row r="737" spans="1:2">
@@ -10461,7 +10461,7 @@
         <v>736</v>
       </c>
       <c r="B737">
-        <v>0.007985779586942372</v>
+        <v>0.007727351692832079</v>
       </c>
     </row>
     <row r="738" spans="1:2">
@@ -10469,7 +10469,7 @@
         <v>737</v>
       </c>
       <c r="B738">
-        <v>0.001436612160079773</v>
+        <v>0.0005339837985060683</v>
       </c>
     </row>
     <row r="739" spans="1:2">
@@ -10477,7 +10477,7 @@
         <v>738</v>
       </c>
       <c r="B739">
-        <v>0.00808241708884468</v>
+        <v>0.008626136617634002</v>
       </c>
     </row>
     <row r="740" spans="1:2">
@@ -10485,7 +10485,7 @@
         <v>739</v>
       </c>
       <c r="B740">
-        <v>0.008305200556070588</v>
+        <v>0.007597607472822445</v>
       </c>
     </row>
     <row r="741" spans="1:2">
@@ -10493,7 +10493,7 @@
         <v>740</v>
       </c>
       <c r="B741">
-        <v>-0.01410373234778657</v>
+        <v>-0.01338268452931431</v>
       </c>
     </row>
     <row r="742" spans="1:2">
@@ -10501,7 +10501,7 @@
         <v>741</v>
       </c>
       <c r="B742">
-        <v>0.02041754418260252</v>
+        <v>0.0207304658157738</v>
       </c>
     </row>
     <row r="743" spans="1:2">
@@ -10509,7 +10509,7 @@
         <v>742</v>
       </c>
       <c r="B743">
-        <v>-0.05279336196562381</v>
+        <v>-0.05286655236488248</v>
       </c>
     </row>
     <row r="744" spans="1:2">
@@ -10517,7 +10517,7 @@
         <v>743</v>
       </c>
       <c r="B744">
-        <v>-0.02655904057073664</v>
+        <v>-0.02579567861333697</v>
       </c>
     </row>
     <row r="745" spans="1:2">
@@ -10525,7 +10525,7 @@
         <v>744</v>
       </c>
       <c r="B745">
-        <v>0.02330316738876105</v>
+        <v>0.02279300190210917</v>
       </c>
     </row>
     <row r="746" spans="1:2">
@@ -10533,7 +10533,7 @@
         <v>745</v>
       </c>
       <c r="B746">
-        <v>0.01706459585324182</v>
+        <v>0.01711298428008935</v>
       </c>
     </row>
     <row r="747" spans="1:2">
@@ -10541,7 +10541,7 @@
         <v>746</v>
       </c>
       <c r="B747">
-        <v>0.01416072973291855</v>
+        <v>0.01401094340382469</v>
       </c>
     </row>
     <row r="748" spans="1:2">
@@ -10717,7 +10717,7 @@
         <v>768</v>
       </c>
       <c r="B769">
-        <v>-6.83380849129058e-05</v>
+        <v>-9.716215428819483e-05</v>
       </c>
     </row>
     <row r="770" spans="1:2">
@@ -10725,7 +10725,7 @@
         <v>769</v>
       </c>
       <c r="B770">
-        <v>-0.01707620474006862</v>
+        <v>-0.01765181042405655</v>
       </c>
     </row>
     <row r="771" spans="1:2">
@@ -10733,7 +10733,7 @@
         <v>770</v>
       </c>
       <c r="B771">
-        <v>0.005913486386845257</v>
+        <v>0.006211248851346152</v>
       </c>
     </row>
     <row r="772" spans="1:2">
@@ -10741,7 +10741,7 @@
         <v>771</v>
       </c>
       <c r="B772">
-        <v>0.004454644952964106</v>
+        <v>0.004491592368768497</v>
       </c>
     </row>
     <row r="773" spans="1:2">
@@ -10749,7 +10749,7 @@
         <v>772</v>
       </c>
       <c r="B773">
-        <v>0.01395368488658532</v>
+        <v>0.01428682180943244</v>
       </c>
     </row>
     <row r="774" spans="1:2">
@@ -10757,7 +10757,7 @@
         <v>773</v>
       </c>
       <c r="B774">
-        <v>0.00186466758311797</v>
+        <v>0.002164583428809141</v>
       </c>
     </row>
     <row r="775" spans="1:2">
@@ -10765,7 +10765,7 @@
         <v>774</v>
       </c>
       <c r="B775">
-        <v>-0.0235132748669525</v>
+        <v>-0.02775330117937243</v>
       </c>
     </row>
     <row r="776" spans="1:2">
@@ -10773,7 +10773,7 @@
         <v>775</v>
       </c>
       <c r="B776">
-        <v>-0.002376627555606818</v>
+        <v>-0.00233949821653763</v>
       </c>
     </row>
     <row r="777" spans="1:2">
@@ -10781,7 +10781,7 @@
         <v>776</v>
       </c>
       <c r="B777">
-        <v>0.007049113174610155</v>
+        <v>0.007333114247596361</v>
       </c>
     </row>
     <row r="778" spans="1:2">
@@ -10789,7 +10789,7 @@
         <v>777</v>
       </c>
       <c r="B778">
-        <v>0.005549866935844324</v>
+        <v>0.006585124625826097</v>
       </c>
     </row>
     <row r="779" spans="1:2">
@@ -10797,7 +10797,7 @@
         <v>778</v>
       </c>
       <c r="B779">
-        <v>0.008522041112601512</v>
+        <v>0.008832228958219952</v>
       </c>
     </row>
     <row r="780" spans="1:2">
@@ -10805,7 +10805,7 @@
         <v>779</v>
       </c>
       <c r="B780">
-        <v>-0.003971968494494514</v>
+        <v>-0.003992068326089419</v>
       </c>
     </row>
     <row r="781" spans="1:2">
@@ -10813,7 +10813,7 @@
         <v>780</v>
       </c>
       <c r="B781">
-        <v>-0.006393407200502622</v>
+        <v>-0.006960506298714431</v>
       </c>
     </row>
     <row r="782" spans="1:2">
@@ -10821,7 +10821,7 @@
         <v>781</v>
       </c>
       <c r="B782">
-        <v>0.005996335306167864</v>
+        <v>0.006456805111905069</v>
       </c>
     </row>
     <row r="783" spans="1:2">
@@ -10829,7 +10829,7 @@
         <v>782</v>
       </c>
       <c r="B783">
-        <v>0.006136514814458077</v>
+        <v>0.00608821866760161</v>
       </c>
     </row>
     <row r="784" spans="1:2">
@@ -10837,7 +10837,7 @@
         <v>783</v>
       </c>
       <c r="B784">
-        <v>-0.001360932047283255</v>
+        <v>-0.001056923527273255</v>
       </c>
     </row>
     <row r="785" spans="1:2">
@@ -10845,7 +10845,7 @@
         <v>784</v>
       </c>
       <c r="B785">
-        <v>0.008650068459136477</v>
+        <v>0.008791994075419972</v>
       </c>
     </row>
     <row r="786" spans="1:2">
@@ -10853,7 +10853,7 @@
         <v>785</v>
       </c>
       <c r="B786">
-        <v>-0.007348786187167695</v>
+        <v>-0.007370856294869707</v>
       </c>
     </row>
     <row r="787" spans="1:2">
@@ -10861,7 +10861,7 @@
         <v>786</v>
       </c>
       <c r="B787">
-        <v>0.002622529795288126</v>
+        <v>0.002983328547169587</v>
       </c>
     </row>
     <row r="788" spans="1:2">
@@ -10869,7 +10869,7 @@
         <v>787</v>
       </c>
       <c r="B788">
-        <v>0.00834633556789518</v>
+        <v>0.008840325591364506</v>
       </c>
     </row>
     <row r="789" spans="1:2">
@@ -10877,7 +10877,7 @@
         <v>788</v>
       </c>
       <c r="B789">
-        <v>0.001824731935544111</v>
+        <v>0.002055894366757357</v>
       </c>
     </row>
     <row r="790" spans="1:2">
@@ -10885,7 +10885,7 @@
         <v>789</v>
       </c>
       <c r="B790">
-        <v>-0.003955359907335935</v>
+        <v>-0.004273998810706623</v>
       </c>
     </row>
     <row r="791" spans="1:2">
@@ -10893,7 +10893,7 @@
         <v>790</v>
       </c>
       <c r="B791">
-        <v>-0.0005179443201413977</v>
+        <v>-0.0002962718274305811</v>
       </c>
     </row>
     <row r="792" spans="1:2">
@@ -10901,7 +10901,7 @@
         <v>791</v>
       </c>
       <c r="B792">
-        <v>0.003317156061912888</v>
+        <v>0.007672612004960591</v>
       </c>
     </row>
     <row r="793" spans="1:2">
@@ -10909,7 +10909,7 @@
         <v>792</v>
       </c>
       <c r="B793">
-        <v>0.00312871291366998</v>
+        <v>0.0009955515997351872</v>
       </c>
     </row>
     <row r="794" spans="1:2">
@@ -10917,7 +10917,7 @@
         <v>793</v>
       </c>
       <c r="B794">
-        <v>0.00038305472811868</v>
+        <v>0.0004254559543205785</v>
       </c>
     </row>
     <row r="795" spans="1:2">
@@ -10925,7 +10925,7 @@
         <v>794</v>
       </c>
       <c r="B795">
-        <v>-0.001565842886993905</v>
+        <v>-0.003139422254886456</v>
       </c>
     </row>
     <row r="796" spans="1:2">
@@ -10933,7 +10933,7 @@
         <v>795</v>
       </c>
       <c r="B796">
-        <v>-0.007691312054588151</v>
+        <v>-0.009865344263479832</v>
       </c>
     </row>
     <row r="797" spans="1:2">
@@ -10941,7 +10941,7 @@
         <v>796</v>
       </c>
       <c r="B797">
-        <v>-0.02722830687527118</v>
+        <v>-0.03431462052420717</v>
       </c>
     </row>
     <row r="798" spans="1:2">
@@ -10949,7 +10949,7 @@
         <v>797</v>
       </c>
       <c r="B798">
-        <v>0.01570973985388638</v>
+        <v>0.02022791289800916</v>
       </c>
     </row>
     <row r="799" spans="1:2">
@@ -10957,7 +10957,7 @@
         <v>798</v>
       </c>
       <c r="B799">
-        <v>-0.01091327471169178</v>
+        <v>-0.007188680157124382</v>
       </c>
     </row>
     <row r="800" spans="1:2">
@@ -10965,7 +10965,7 @@
         <v>799</v>
       </c>
       <c r="B800">
-        <v>0.00515861461389596</v>
+        <v>0.009510637941111949</v>
       </c>
     </row>
     <row r="801" spans="1:2">
@@ -10973,7 +10973,7 @@
         <v>800</v>
       </c>
       <c r="B801">
-        <v>0.02023089436266298</v>
+        <v>0.02550439578397067</v>
       </c>
     </row>
     <row r="802" spans="1:2">
@@ -10981,7 +10981,7 @@
         <v>801</v>
       </c>
       <c r="B802">
-        <v>-0.0005607444679983084</v>
+        <v>0.004184903202532515</v>
       </c>
     </row>
     <row r="803" spans="1:2">
@@ -10989,7 +10989,7 @@
         <v>802</v>
       </c>
       <c r="B803">
-        <v>0.009366994804481929</v>
+        <v>0.02053285939392633</v>
       </c>
     </row>
     <row r="804" spans="1:2">
@@ -10997,7 +10997,7 @@
         <v>803</v>
       </c>
       <c r="B804">
-        <v>-0.001550050406398607</v>
+        <v>-0.001567534531956561</v>
       </c>
     </row>
     <row r="805" spans="1:2">
@@ -11005,7 +11005,7 @@
         <v>804</v>
       </c>
       <c r="B805">
-        <v>0.01931872624983504</v>
+        <v>0.0178145966605039</v>
       </c>
     </row>
     <row r="806" spans="1:2">
@@ -11013,7 +11013,7 @@
         <v>805</v>
       </c>
       <c r="B806">
-        <v>0.006788574620866709</v>
+        <v>0.00950955954624742</v>
       </c>
     </row>
     <row r="807" spans="1:2">
@@ -11021,7 +11021,7 @@
         <v>806</v>
       </c>
       <c r="B807">
-        <v>-0.0120387761230688</v>
+        <v>-0.012253993463976</v>
       </c>
     </row>
     <row r="808" spans="1:2">
@@ -11029,7 +11029,7 @@
         <v>807</v>
       </c>
       <c r="B808">
-        <v>-0.0079728812146432</v>
+        <v>-0.01117379399098071</v>
       </c>
     </row>
     <row r="809" spans="1:2">
@@ -11037,7 +11037,7 @@
         <v>808</v>
       </c>
       <c r="B809">
-        <v>0.0124541156910712</v>
+        <v>0.01575119887205557</v>
       </c>
     </row>
     <row r="810" spans="1:2">
@@ -11045,7 +11045,7 @@
         <v>809</v>
       </c>
       <c r="B810">
-        <v>0.003902114158198644</v>
+        <v>0.002836244576029</v>
       </c>
     </row>
     <row r="811" spans="1:2">
@@ -11053,7 +11053,7 @@
         <v>810</v>
       </c>
       <c r="B811">
-        <v>-0.001518640386823932</v>
+        <v>0.003358201496668631</v>
       </c>
     </row>
     <row r="812" spans="1:2">
@@ -11061,7 +11061,7 @@
         <v>811</v>
       </c>
       <c r="B812">
-        <v>0.00992395364611539</v>
+        <v>0.01104050482355696</v>
       </c>
     </row>
     <row r="813" spans="1:2">
@@ -11237,7 +11237,7 @@
         <v>833</v>
       </c>
       <c r="B834">
-        <v>-0.01010584519771431</v>
+        <v>-0.009569390867277379</v>
       </c>
     </row>
     <row r="835" spans="1:2">
@@ -11245,7 +11245,7 @@
         <v>834</v>
       </c>
       <c r="B835">
-        <v>1.295257710917858e-05</v>
+        <v>0.001886533367775671</v>
       </c>
     </row>
     <row r="836" spans="1:2">
@@ -11253,7 +11253,7 @@
         <v>835</v>
       </c>
       <c r="B836">
-        <v>-0.00735983264805319</v>
+        <v>-0.008496560876713926</v>
       </c>
     </row>
     <row r="837" spans="1:2">
@@ -11261,7 +11261,7 @@
         <v>836</v>
       </c>
       <c r="B837">
-        <v>-0.002204589183802707</v>
+        <v>-0.002127064126005569</v>
       </c>
     </row>
     <row r="838" spans="1:2">
@@ -11269,7 +11269,7 @@
         <v>837</v>
       </c>
       <c r="B838">
-        <v>0.02536320157902086</v>
+        <v>0.02590018842020197</v>
       </c>
     </row>
     <row r="839" spans="1:2">
@@ -11277,7 +11277,7 @@
         <v>838</v>
       </c>
       <c r="B839">
-        <v>0.002601235355543263</v>
+        <v>0.001729730722646992</v>
       </c>
     </row>
     <row r="840" spans="1:2">
@@ -11285,7 +11285,7 @@
         <v>839</v>
       </c>
       <c r="B840">
-        <v>0.002310287322140534</v>
+        <v>0.002410942997295743</v>
       </c>
     </row>
     <row r="841" spans="1:2">
@@ -11293,7 +11293,7 @@
         <v>840</v>
       </c>
       <c r="B841">
-        <v>-0.01143532872611475</v>
+        <v>-0.01058763464231538</v>
       </c>
     </row>
     <row r="842" spans="1:2">
@@ -11301,7 +11301,7 @@
         <v>841</v>
       </c>
       <c r="B842">
-        <v>0.03363131223596889</v>
+        <v>0.04520807673698764</v>
       </c>
     </row>
     <row r="843" spans="1:2">
@@ -11309,7 +11309,7 @@
         <v>842</v>
       </c>
       <c r="B843">
-        <v>-0.00764905768468898</v>
+        <v>-0.008293295963752129</v>
       </c>
     </row>
     <row r="844" spans="1:2">
@@ -11317,7 +11317,7 @@
         <v>843</v>
       </c>
       <c r="B844">
-        <v>0.008421301911981323</v>
+        <v>0.009027474966122625</v>
       </c>
     </row>
     <row r="845" spans="1:2">
@@ -11325,7 +11325,7 @@
         <v>844</v>
       </c>
       <c r="B845">
-        <v>0.01247361480123243</v>
+        <v>0.01658936608909975</v>
       </c>
     </row>
     <row r="846" spans="1:2">
@@ -11333,7 +11333,7 @@
         <v>845</v>
       </c>
       <c r="B846">
-        <v>0.01076803242847353</v>
+        <v>0.01281180741246018</v>
       </c>
     </row>
     <row r="847" spans="1:2">
@@ -11341,7 +11341,7 @@
         <v>846</v>
       </c>
       <c r="B847">
-        <v>0.0003414213722548245</v>
+        <v>0.000494853065432738</v>
       </c>
     </row>
     <row r="848" spans="1:2">
@@ -11349,7 +11349,7 @@
         <v>847</v>
       </c>
       <c r="B848">
-        <v>0.004529243352750771</v>
+        <v>0.003403129943236728</v>
       </c>
     </row>
     <row r="849" spans="1:2">
@@ -11357,7 +11357,7 @@
         <v>848</v>
       </c>
       <c r="B849">
-        <v>0.009778822390949408</v>
+        <v>0.01227575711147339</v>
       </c>
     </row>
     <row r="850" spans="1:2">
@@ -11365,7 +11365,7 @@
         <v>849</v>
       </c>
       <c r="B850">
-        <v>-0.004710786707924611</v>
+        <v>0.001511954724956487</v>
       </c>
     </row>
     <row r="851" spans="1:2">
@@ -11389,7 +11389,7 @@
         <v>852</v>
       </c>
       <c r="B853">
-        <v>-0.00513727261717651</v>
+        <v>-0.004427401170968796</v>
       </c>
     </row>
     <row r="854" spans="1:2">
@@ -11397,7 +11397,7 @@
         <v>853</v>
       </c>
       <c r="B854">
-        <v>-0.0004073108866503088</v>
+        <v>-0.0001577410302259241</v>
       </c>
     </row>
     <row r="855" spans="1:2">
@@ -11405,7 +11405,7 @@
         <v>854</v>
       </c>
       <c r="B855">
-        <v>-0.004680138549114158</v>
+        <v>-0.006176800995140477</v>
       </c>
     </row>
     <row r="856" spans="1:2">
@@ -11413,7 +11413,7 @@
         <v>855</v>
       </c>
       <c r="B856">
-        <v>-0.03509530042416717</v>
+        <v>-0.03480326048718042</v>
       </c>
     </row>
     <row r="857" spans="1:2">
@@ -11421,7 +11421,7 @@
         <v>856</v>
       </c>
       <c r="B857">
-        <v>0.008878004631731364</v>
+        <v>0.008825585767198538</v>
       </c>
     </row>
     <row r="858" spans="1:2">
@@ -11429,7 +11429,7 @@
         <v>857</v>
       </c>
       <c r="B858">
-        <v>0.01908311034873096</v>
+        <v>0.01701262743174835</v>
       </c>
     </row>
     <row r="859" spans="1:2">
@@ -11437,7 +11437,7 @@
         <v>858</v>
       </c>
       <c r="B859">
-        <v>0.009232858895103923</v>
+        <v>0.01058248252010695</v>
       </c>
     </row>
     <row r="860" spans="1:2">
@@ -11445,7 +11445,7 @@
         <v>859</v>
       </c>
       <c r="B860">
-        <v>0.03134636806782052</v>
+        <v>0.02894404019539474</v>
       </c>
     </row>
     <row r="861" spans="1:2">
@@ -11453,7 +11453,7 @@
         <v>860</v>
       </c>
       <c r="B861">
-        <v>0.005983214074691396</v>
+        <v>0.007471503405002555</v>
       </c>
     </row>
     <row r="862" spans="1:2">
@@ -11461,7 +11461,7 @@
         <v>861</v>
       </c>
       <c r="B862">
-        <v>-0.00093795630831047</v>
+        <v>-0.0009803974022863226</v>
       </c>
     </row>
     <row r="863" spans="1:2">
@@ -11469,7 +11469,7 @@
         <v>862</v>
       </c>
       <c r="B863">
-        <v>-0.006198284211435225</v>
+        <v>-0.00586405608111435</v>
       </c>
     </row>
     <row r="864" spans="1:2">
@@ -11477,7 +11477,7 @@
         <v>863</v>
       </c>
       <c r="B864">
-        <v>0.005418588401734107</v>
+        <v>0.005879332566694904</v>
       </c>
     </row>
     <row r="865" spans="1:2">
@@ -11485,7 +11485,7 @@
         <v>864</v>
       </c>
       <c r="B865">
-        <v>-0.005753472778979695</v>
+        <v>-0.005694045425088706</v>
       </c>
     </row>
     <row r="866" spans="1:2">
@@ -11493,7 +11493,7 @@
         <v>865</v>
       </c>
       <c r="B866">
-        <v>0.003002981000039238</v>
+        <v>0.003604925827420419</v>
       </c>
     </row>
     <row r="867" spans="1:2">
@@ -11501,7 +11501,7 @@
         <v>866</v>
       </c>
       <c r="B867">
-        <v>-0.005330444372337472</v>
+        <v>-0.006756242305304524</v>
       </c>
     </row>
     <row r="868" spans="1:2">
@@ -11509,7 +11509,7 @@
         <v>867</v>
       </c>
       <c r="B868">
-        <v>0.007709949124414205</v>
+        <v>0.007844677178919169</v>
       </c>
     </row>
     <row r="869" spans="1:2">
@@ -11517,7 +11517,7 @@
         <v>868</v>
       </c>
       <c r="B869">
-        <v>0.004478646093871459</v>
+        <v>0.005003506403499476</v>
       </c>
     </row>
     <row r="870" spans="1:2">
@@ -11525,7 +11525,7 @@
         <v>869</v>
       </c>
       <c r="B870">
-        <v>-0.005174744734265375</v>
+        <v>-0.005036762930115371</v>
       </c>
     </row>
     <row r="871" spans="1:2">
@@ -11533,7 +11533,7 @@
         <v>870</v>
       </c>
       <c r="B871">
-        <v>-0.0009615991882921635</v>
+        <v>-0.0003594743108519246</v>
       </c>
     </row>
     <row r="872" spans="1:2">
@@ -11541,7 +11541,7 @@
         <v>871</v>
       </c>
       <c r="B872">
-        <v>0.001272776955184991</v>
+        <v>0.001889011692711351</v>
       </c>
     </row>
     <row r="873" spans="1:2">
@@ -11549,7 +11549,7 @@
         <v>872</v>
       </c>
       <c r="B873">
-        <v>0.01394331035618746</v>
+        <v>0.01287193751258824</v>
       </c>
     </row>
     <row r="874" spans="1:2">
@@ -11557,7 +11557,7 @@
         <v>873</v>
       </c>
       <c r="B874">
-        <v>-0.02084899249690459</v>
+        <v>-0.02010818802368035</v>
       </c>
     </row>
     <row r="875" spans="1:2">
@@ -11565,7 +11565,7 @@
         <v>874</v>
       </c>
       <c r="B875">
-        <v>-9.031612336312251e-05</v>
+        <v>0.0001282743099929111</v>
       </c>
     </row>
     <row r="876" spans="1:2">
@@ -11573,7 +11573,7 @@
         <v>875</v>
       </c>
       <c r="B876">
-        <v>-0.01310770220278812</v>
+        <v>-0.01271611872468246</v>
       </c>
     </row>
     <row r="877" spans="1:2">
@@ -11749,7 +11749,7 @@
         <v>897</v>
       </c>
       <c r="B898">
-        <v>-0.00867601577157627</v>
+        <v>0.01167585589069628</v>
       </c>
     </row>
     <row r="899" spans="1:2">
@@ -11757,7 +11757,7 @@
         <v>898</v>
       </c>
       <c r="B899">
-        <v>0.00204752652908568</v>
+        <v>0.004183696329453498</v>
       </c>
     </row>
     <row r="900" spans="1:2">
@@ -11765,7 +11765,7 @@
         <v>899</v>
       </c>
       <c r="B900">
-        <v>0.01807611018148355</v>
+        <v>0.009323026632159816</v>
       </c>
     </row>
     <row r="901" spans="1:2">
@@ -11773,7 +11773,7 @@
         <v>900</v>
       </c>
       <c r="B901">
-        <v>0.005461041932530322</v>
+        <v>0.006358008344622595</v>
       </c>
     </row>
     <row r="902" spans="1:2">
@@ -11781,7 +11781,7 @@
         <v>901</v>
       </c>
       <c r="B902">
-        <v>0.003901789249786672</v>
+        <v>0.002937163231292934</v>
       </c>
     </row>
     <row r="903" spans="1:2">
@@ -11789,7 +11789,7 @@
         <v>902</v>
       </c>
       <c r="B903">
-        <v>-0.002823451838264652</v>
+        <v>0.003015051629098666</v>
       </c>
     </row>
     <row r="904" spans="1:2">
@@ -11797,7 +11797,7 @@
         <v>903</v>
       </c>
       <c r="B904">
-        <v>-0.009496285613201108</v>
+        <v>0.005435336638735346</v>
       </c>
     </row>
     <row r="905" spans="1:2">
@@ -11805,7 +11805,7 @@
         <v>904</v>
       </c>
       <c r="B905">
-        <v>-0.0008076996458912032</v>
+        <v>0.0004818754022846043</v>
       </c>
     </row>
     <row r="906" spans="1:2">
@@ -11813,7 +11813,7 @@
         <v>905</v>
       </c>
       <c r="B906">
-        <v>-0.001958156388472711</v>
+        <v>0.004743884832909192</v>
       </c>
     </row>
     <row r="907" spans="1:2">
@@ -11821,7 +11821,7 @@
         <v>906</v>
       </c>
       <c r="B907">
-        <v>-0.00113504939430117</v>
+        <v>0.001254786042588006</v>
       </c>
     </row>
     <row r="908" spans="1:2">
@@ -11829,7 +11829,7 @@
         <v>907</v>
       </c>
       <c r="B908">
-        <v>0.009563798755940977</v>
+        <v>0.005637877302583303</v>
       </c>
     </row>
     <row r="909" spans="1:2">
@@ -11837,7 +11837,7 @@
         <v>908</v>
       </c>
       <c r="B909">
-        <v>0.002158397868079982</v>
+        <v>-0.0008555009507646403</v>
       </c>
     </row>
     <row r="910" spans="1:2">
@@ -11845,7 +11845,7 @@
         <v>909</v>
       </c>
       <c r="B910">
-        <v>-2.120693033629758e-05</v>
+        <v>0.003176170160753882</v>
       </c>
     </row>
     <row r="911" spans="1:2">
@@ -11853,7 +11853,7 @@
         <v>910</v>
       </c>
       <c r="B911">
-        <v>0.01389576248817639</v>
+        <v>0.01376564032396035</v>
       </c>
     </row>
     <row r="912" spans="1:2">
@@ -11861,7 +11861,7 @@
         <v>911</v>
       </c>
       <c r="B912">
-        <v>0.001078034505725712</v>
+        <v>0.002156181931553024</v>
       </c>
     </row>
     <row r="913" spans="1:2">
@@ -11869,7 +11869,7 @@
         <v>912</v>
       </c>
       <c r="B913">
-        <v>-0.01922299019347393</v>
+        <v>-0.007624494841498283</v>
       </c>
     </row>
     <row r="914" spans="1:2">
@@ -11877,7 +11877,7 @@
         <v>913</v>
       </c>
       <c r="B914">
-        <v>-0.003203366390520389</v>
+        <v>0.001307805248839156</v>
       </c>
     </row>
     <row r="915" spans="1:2">
@@ -11885,7 +11885,7 @@
         <v>914</v>
       </c>
       <c r="B915">
-        <v>0.001661287134127381</v>
+        <v>0.005853498945000002</v>
       </c>
     </row>
     <row r="916" spans="1:2">
@@ -11893,7 +11893,7 @@
         <v>915</v>
       </c>
       <c r="B916">
-        <v>-0.01758640346734559</v>
+        <v>-0.01367630014941367</v>
       </c>
     </row>
     <row r="917" spans="1:2">
@@ -11901,7 +11901,7 @@
         <v>916</v>
       </c>
       <c r="B917">
-        <v>0.0147376675764844</v>
+        <v>0.01519847674547903</v>
       </c>
     </row>
     <row r="918" spans="1:2">
@@ -11909,7 +11909,7 @@
         <v>917</v>
       </c>
       <c r="B918">
-        <v>-0.007501153345273777</v>
+        <v>-0.008485664489414374</v>
       </c>
     </row>
     <row r="919" spans="1:2">
@@ -11917,7 +11917,7 @@
         <v>918</v>
       </c>
       <c r="B919">
-        <v>-0.001171713491163605</v>
+        <v>-0.0007306053016380113</v>
       </c>
     </row>
     <row r="920" spans="1:2">
@@ -11925,7 +11925,7 @@
         <v>919</v>
       </c>
       <c r="B920">
-        <v>-0.004259775533118589</v>
+        <v>-0.004464377394635794</v>
       </c>
     </row>
     <row r="921" spans="1:2">
@@ -11933,7 +11933,7 @@
         <v>920</v>
       </c>
       <c r="B921">
-        <v>0.001080071998481249</v>
+        <v>0.0002640514436029861</v>
       </c>
     </row>
     <row r="922" spans="1:2">
@@ -11941,7 +11941,7 @@
         <v>921</v>
       </c>
       <c r="B922">
-        <v>0.002234561503861217</v>
+        <v>0.00109884983965467</v>
       </c>
     </row>
     <row r="923" spans="1:2">
@@ -11949,7 +11949,7 @@
         <v>922</v>
       </c>
       <c r="B923">
-        <v>0.0008364832250692824</v>
+        <v>0.0002316608003712787</v>
       </c>
     </row>
     <row r="924" spans="1:2">
@@ -11957,7 +11957,7 @@
         <v>923</v>
       </c>
       <c r="B924">
-        <v>0.008318160068847825</v>
+        <v>0.006055837654363321</v>
       </c>
     </row>
     <row r="925" spans="1:2">
@@ -11965,7 +11965,7 @@
         <v>924</v>
       </c>
       <c r="B925">
-        <v>-0.005573700810292084</v>
+        <v>0.001792815356067912</v>
       </c>
     </row>
     <row r="926" spans="1:2">
@@ -11973,7 +11973,7 @@
         <v>925</v>
       </c>
       <c r="B926">
-        <v>-0.003046545434873623</v>
+        <v>-0.003147116193496247</v>
       </c>
     </row>
     <row r="927" spans="1:2">
@@ -11981,7 +11981,7 @@
         <v>926</v>
       </c>
       <c r="B927">
-        <v>0.008308615339895494</v>
+        <v>0.008086613015443627</v>
       </c>
     </row>
     <row r="928" spans="1:2">
@@ -11989,7 +11989,7 @@
         <v>927</v>
       </c>
       <c r="B928">
-        <v>0.007090296257806604</v>
+        <v>0.004610856422272132</v>
       </c>
     </row>
     <row r="929" spans="1:2">
@@ -11997,7 +11997,7 @@
         <v>928</v>
       </c>
       <c r="B929">
-        <v>0.002834365063646684</v>
+        <v>0.002211661615074874</v>
       </c>
     </row>
     <row r="930" spans="1:2">
@@ -12005,7 +12005,7 @@
         <v>929</v>
       </c>
       <c r="B930">
-        <v>0.002186214942645901</v>
+        <v>0.0008980709644751668</v>
       </c>
     </row>
     <row r="931" spans="1:2">
@@ -12013,7 +12013,7 @@
         <v>930</v>
       </c>
       <c r="B931">
-        <v>-0.0171791543630435</v>
+        <v>-0.02046295931313757</v>
       </c>
     </row>
     <row r="932" spans="1:2">
@@ -12021,7 +12021,7 @@
         <v>931</v>
       </c>
       <c r="B932">
-        <v>0.006365033310494391</v>
+        <v>0.007824873053992909</v>
       </c>
     </row>
     <row r="933" spans="1:2">
@@ -12029,7 +12029,7 @@
         <v>932</v>
       </c>
       <c r="B933">
-        <v>-0.002173911254807419</v>
+        <v>-0.0003477108929886149</v>
       </c>
     </row>
     <row r="934" spans="1:2">
@@ -12037,7 +12037,7 @@
         <v>933</v>
       </c>
       <c r="B934">
-        <v>0.0007310814434780122</v>
+        <v>0.001115305377359969</v>
       </c>
     </row>
     <row r="935" spans="1:2">
@@ -12045,7 +12045,7 @@
         <v>934</v>
       </c>
       <c r="B935">
-        <v>0.0009862694346476008</v>
+        <v>-0.0004248406279067736</v>
       </c>
     </row>
     <row r="936" spans="1:2">
@@ -12053,7 +12053,7 @@
         <v>935</v>
       </c>
       <c r="B936">
-        <v>0.00633136222513887</v>
+        <v>0.006662225452198284</v>
       </c>
     </row>
     <row r="937" spans="1:2">
@@ -12061,7 +12061,7 @@
         <v>936</v>
       </c>
       <c r="B937">
-        <v>0.002160620410964222</v>
+        <v>0.003120054478007026</v>
       </c>
     </row>
     <row r="938" spans="1:2">
@@ -12069,7 +12069,7 @@
         <v>937</v>
       </c>
       <c r="B938">
-        <v>0.004399397702713979</v>
+        <v>0.001284218624440523</v>
       </c>
     </row>
     <row r="939" spans="1:2">
@@ -12077,7 +12077,7 @@
         <v>938</v>
       </c>
       <c r="B939">
-        <v>0.0006028476845271668</v>
+        <v>-9.199958477946156e-05</v>
       </c>
     </row>
     <row r="940" spans="1:2">
@@ -12085,7 +12085,7 @@
         <v>939</v>
       </c>
       <c r="B940">
-        <v>-0.008025208703164451</v>
+        <v>-0.009219377488420711</v>
       </c>
     </row>
     <row r="941" spans="1:2">
@@ -12093,7 +12093,7 @@
         <v>940</v>
       </c>
       <c r="B941">
-        <v>-0.009015691000483236</v>
+        <v>-0.008758999837033358</v>
       </c>
     </row>
     <row r="942" spans="1:2">
@@ -12101,7 +12101,7 @@
         <v>941</v>
       </c>
       <c r="B942">
-        <v>-0.005772567224582955</v>
+        <v>-0.007495507452738076</v>
       </c>
     </row>
     <row r="943" spans="1:2">
@@ -12109,7 +12109,7 @@
         <v>942</v>
       </c>
       <c r="B943">
-        <v>4.343300094390359e-06</v>
+        <v>-0.0001984223950471847</v>
       </c>
     </row>
     <row r="944" spans="1:2">
@@ -12117,7 +12117,7 @@
         <v>943</v>
       </c>
       <c r="B944">
-        <v>-0.001748969787680774</v>
+        <v>-0.0005741314085809103</v>
       </c>
     </row>
     <row r="945" spans="1:2">
@@ -12125,7 +12125,7 @@
         <v>944</v>
       </c>
       <c r="B945">
-        <v>-0.003756349644681216</v>
+        <v>-0.003672524432038747</v>
       </c>
     </row>
     <row r="946" spans="1:2">
@@ -12133,7 +12133,7 @@
         <v>945</v>
       </c>
       <c r="B946">
-        <v>0.0006251190446443741</v>
+        <v>0.002062615351156283</v>
       </c>
     </row>
     <row r="947" spans="1:2">
@@ -12141,7 +12141,7 @@
         <v>946</v>
       </c>
       <c r="B947">
-        <v>-0.006002297471077354</v>
+        <v>-0.005251139810547817</v>
       </c>
     </row>
     <row r="948" spans="1:2">
@@ -12149,7 +12149,7 @@
         <v>947</v>
       </c>
       <c r="B948">
-        <v>-0.006165405895742279</v>
+        <v>-0.005745486856238748</v>
       </c>
     </row>
     <row r="949" spans="1:2">
@@ -12157,7 +12157,7 @@
         <v>948</v>
       </c>
       <c r="B949">
-        <v>0.01094220851486438</v>
+        <v>0.01139077153227114</v>
       </c>
     </row>
     <row r="950" spans="1:2">
@@ -12165,7 +12165,7 @@
         <v>949</v>
       </c>
       <c r="B950">
-        <v>0.0009509582997003393</v>
+        <v>0.001355221233385533</v>
       </c>
     </row>
     <row r="951" spans="1:2">
@@ -12173,7 +12173,7 @@
         <v>950</v>
       </c>
       <c r="B951">
-        <v>0.002194855369777237</v>
+        <v>0.002896874847529392</v>
       </c>
     </row>
     <row r="952" spans="1:2">
@@ -12181,7 +12181,7 @@
         <v>951</v>
       </c>
       <c r="B952">
-        <v>0.008339804099250857</v>
+        <v>0.00926684783666633</v>
       </c>
     </row>
     <row r="953" spans="1:2">
@@ -12189,7 +12189,7 @@
         <v>952</v>
       </c>
       <c r="B953">
-        <v>-0.00233897554327847</v>
+        <v>-0.003673975749600232</v>
       </c>
     </row>
     <row r="954" spans="1:2">
@@ -12197,7 +12197,7 @@
         <v>953</v>
       </c>
       <c r="B954">
-        <v>0.009885127043008981</v>
+        <v>0.01040919096696162</v>
       </c>
     </row>
     <row r="955" spans="1:2">
@@ -12205,7 +12205,7 @@
         <v>954</v>
       </c>
       <c r="B955">
-        <v>0.004943588771941129</v>
+        <v>0.004871940324437308</v>
       </c>
     </row>
     <row r="956" spans="1:2">
@@ -12213,7 +12213,7 @@
         <v>955</v>
       </c>
       <c r="B956">
-        <v>0.0001163394434882917</v>
+        <v>0.001472104622698692</v>
       </c>
     </row>
     <row r="957" spans="1:2">
@@ -12221,7 +12221,7 @@
         <v>956</v>
       </c>
       <c r="B957">
-        <v>0.005544219999501449</v>
+        <v>0.004910485576067579</v>
       </c>
     </row>
     <row r="958" spans="1:2">
@@ -12229,7 +12229,7 @@
         <v>957</v>
       </c>
       <c r="B958">
-        <v>0.001367635847948249</v>
+        <v>-0.0006253450004982972</v>
       </c>
     </row>
     <row r="959" spans="1:2">
@@ -12237,7 +12237,7 @@
         <v>958</v>
       </c>
       <c r="B959">
-        <v>0.009139133032279973</v>
+        <v>0.009228766108764873</v>
       </c>
     </row>
     <row r="960" spans="1:2">
@@ -12245,7 +12245,7 @@
         <v>959</v>
       </c>
       <c r="B960">
-        <v>-0.003216279664236515</v>
+        <v>-0.003333060970163683</v>
       </c>
     </row>
     <row r="961" spans="1:2">
@@ -12253,7 +12253,7 @@
         <v>960</v>
       </c>
       <c r="B961">
-        <v>0.0002148691837367497</v>
+        <v>0.0003339484078059723</v>
       </c>
     </row>
     <row r="962" spans="1:2">
@@ -12261,7 +12261,7 @@
         <v>961</v>
       </c>
       <c r="B962">
-        <v>0.01474327584945999</v>
+        <v>0.01458010884908542</v>
       </c>
     </row>
     <row r="963" spans="1:2">
@@ -12269,7 +12269,7 @@
         <v>962</v>
       </c>
       <c r="B963">
-        <v>0.000950622506113711</v>
+        <v>0.0009585461638509376</v>
       </c>
     </row>
     <row r="964" spans="1:2">
@@ -12293,7 +12293,7 @@
         <v>965</v>
       </c>
       <c r="B966">
-        <v>-7.654099480625684e-05</v>
+        <v>3.30665753790389e-05</v>
       </c>
     </row>
     <row r="967" spans="1:2">
@@ -12301,7 +12301,7 @@
         <v>966</v>
       </c>
       <c r="B967">
-        <v>0.02833369744544112</v>
+        <v>0.02887662027619477</v>
       </c>
     </row>
     <row r="968" spans="1:2">
@@ -12309,7 +12309,7 @@
         <v>967</v>
       </c>
       <c r="B968">
-        <v>0.001208555475720273</v>
+        <v>0.001402614910550108</v>
       </c>
     </row>
     <row r="969" spans="1:2">
@@ -12317,7 +12317,7 @@
         <v>968</v>
       </c>
       <c r="B969">
-        <v>0.002221804921277462</v>
+        <v>0.002290299126344343</v>
       </c>
     </row>
     <row r="970" spans="1:2">
@@ -12325,7 +12325,7 @@
         <v>969</v>
       </c>
       <c r="B970">
-        <v>0.01291216534086823</v>
+        <v>0.01306967893369317</v>
       </c>
     </row>
     <row r="971" spans="1:2">
@@ -12333,7 +12333,7 @@
         <v>970</v>
       </c>
       <c r="B971">
-        <v>0.008995413630415904</v>
+        <v>0.009081549317736186</v>
       </c>
     </row>
     <row r="972" spans="1:2">
@@ -12341,7 +12341,7 @@
         <v>971</v>
       </c>
       <c r="B972">
-        <v>-0.03166550674042432</v>
+        <v>-0.03182011217064464</v>
       </c>
     </row>
     <row r="973" spans="1:2">
@@ -12349,7 +12349,7 @@
         <v>972</v>
       </c>
       <c r="B973">
-        <v>0.008470523190478229</v>
+        <v>0.008742514310635682</v>
       </c>
     </row>
     <row r="974" spans="1:2">
@@ -12357,7 +12357,7 @@
         <v>973</v>
       </c>
       <c r="B974">
-        <v>0.01170363573750768</v>
+        <v>0.01178691111903719</v>
       </c>
     </row>
     <row r="975" spans="1:2">
@@ -12365,7 +12365,7 @@
         <v>974</v>
       </c>
       <c r="B975">
-        <v>0.01542658503495318</v>
+        <v>0.01551399287823931</v>
       </c>
     </row>
     <row r="976" spans="1:2">
@@ -12373,7 +12373,7 @@
         <v>975</v>
       </c>
       <c r="B976">
-        <v>-0.002610344292296621</v>
+        <v>-0.002618260286293754</v>
       </c>
     </row>
     <row r="977" spans="1:2">
@@ -12381,7 +12381,7 @@
         <v>976</v>
       </c>
       <c r="B977">
-        <v>0.002035215605906089</v>
+        <v>0.001985440592282347</v>
       </c>
     </row>
     <row r="978" spans="1:2">
@@ -12389,7 +12389,7 @@
         <v>977</v>
       </c>
       <c r="B978">
-        <v>-0.001667545347566563</v>
+        <v>-0.001606052113249153</v>
       </c>
     </row>
     <row r="979" spans="1:2">
@@ -12397,7 +12397,7 @@
         <v>978</v>
       </c>
       <c r="B979">
-        <v>0.004442453759797472</v>
+        <v>0.004474820627285327</v>
       </c>
     </row>
     <row r="980" spans="1:2">
@@ -12421,7 +12421,7 @@
         <v>981</v>
       </c>
       <c r="B982">
-        <v>-0.002603274475097832</v>
+        <v>-0.002552708547590847</v>
       </c>
     </row>
     <row r="983" spans="1:2">
@@ -13293,7 +13293,7 @@
         <v>1090</v>
       </c>
       <c r="B1091">
-        <v>0.009383709952230729</v>
+        <v>0.009424831718108777</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
@@ -13301,7 +13301,7 @@
         <v>1091</v>
       </c>
       <c r="B1092">
-        <v>0.007102813410524472</v>
+        <v>0.006849029579374478</v>
       </c>
     </row>
     <row r="1093" spans="1:2">
@@ -13309,7 +13309,7 @@
         <v>1092</v>
       </c>
       <c r="B1093">
-        <v>0.02302083449879391</v>
+        <v>0.02322254546834056</v>
       </c>
     </row>
     <row r="1094" spans="1:2">
@@ -13317,7 +13317,7 @@
         <v>1093</v>
       </c>
       <c r="B1094">
-        <v>-0.004642058944103668</v>
+        <v>-0.004595403998570046</v>
       </c>
     </row>
     <row r="1095" spans="1:2">
@@ -13325,7 +13325,7 @@
         <v>1094</v>
       </c>
       <c r="B1095">
-        <v>0.006227220081341647</v>
+        <v>0.006302478467260095</v>
       </c>
     </row>
     <row r="1096" spans="1:2">
@@ -13333,7 +13333,7 @@
         <v>1095</v>
       </c>
       <c r="B1096">
-        <v>0.002352525385465691</v>
+        <v>0.002154409541602518</v>
       </c>
     </row>
     <row r="1097" spans="1:2">
@@ -13341,7 +13341,7 @@
         <v>1096</v>
       </c>
       <c r="B1097">
-        <v>-0.01212933451386613</v>
+        <v>-0.01213587442766768</v>
       </c>
     </row>
     <row r="1098" spans="1:2">
@@ -13349,7 +13349,7 @@
         <v>1097</v>
       </c>
       <c r="B1098">
-        <v>0.007973779229624235</v>
+        <v>0.008091819346462064</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
@@ -13357,7 +13357,7 @@
         <v>1098</v>
       </c>
       <c r="B1099">
-        <v>0.00176292245519107</v>
+        <v>0.001776550699421526</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
@@ -13365,7 +13365,7 @@
         <v>1099</v>
       </c>
       <c r="B1100">
-        <v>0.001840355313552503</v>
+        <v>0.001902214938096527</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
@@ -13373,7 +13373,7 @@
         <v>1100</v>
       </c>
       <c r="B1101">
-        <v>-0.005359308769632384</v>
+        <v>-0.005340061677414103</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
@@ -13381,7 +13381,7 @@
         <v>1101</v>
       </c>
       <c r="B1102">
-        <v>0.01628221670503261</v>
+        <v>0.01633366220119484</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
@@ -13389,7 +13389,7 @@
         <v>1102</v>
       </c>
       <c r="B1103">
-        <v>-0.002883189809379949</v>
+        <v>-0.00291641766581531</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
@@ -13397,7 +13397,7 @@
         <v>1103</v>
       </c>
       <c r="B1104">
-        <v>0.006649449666322468</v>
+        <v>0.006728818898004031</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
@@ -13405,7 +13405,7 @@
         <v>1104</v>
       </c>
       <c r="B1105">
-        <v>0.007445592963404743</v>
+        <v>0.007413316696994002</v>
       </c>
     </row>
     <row r="1106" spans="1:2">
@@ -13413,7 +13413,7 @@
         <v>1105</v>
       </c>
       <c r="B1106">
-        <v>-0.002849512657324102</v>
+        <v>-0.002798274413454261</v>
       </c>
     </row>
     <row r="1107" spans="1:2">
@@ -13437,7 +13437,7 @@
         <v>1108</v>
       </c>
       <c r="B1109">
-        <v>-0.002181615909430733</v>
+        <v>-0.002248084057883861</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
@@ -13445,7 +13445,7 @@
         <v>1109</v>
       </c>
       <c r="B1110">
-        <v>0.006226090962985329</v>
+        <v>0.006278961896760154</v>
       </c>
     </row>
     <row r="1111" spans="1:2">
@@ -13453,7 +13453,7 @@
         <v>1110</v>
       </c>
       <c r="B1111">
-        <v>-0.02494091412607051</v>
+        <v>-0.02466542375458272</v>
       </c>
     </row>
     <row r="1112" spans="1:2">
@@ -13461,7 +13461,7 @@
         <v>1111</v>
       </c>
       <c r="B1112">
-        <v>0.01276474918239032</v>
+        <v>0.0125909500558614</v>
       </c>
     </row>
     <row r="1113" spans="1:2">
@@ -13805,7 +13805,7 @@
         <v>1154</v>
       </c>
       <c r="B1155">
-        <v>-0.006929770461041315</v>
+        <v>-0.009286937138587324</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
@@ -13813,7 +13813,7 @@
         <v>1155</v>
       </c>
       <c r="B1156">
-        <v>-0.02379061956682319</v>
+        <v>-0.02810041302169662</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
@@ -13821,7 +13821,7 @@
         <v>1156</v>
       </c>
       <c r="B1157">
-        <v>-0.03666974285054879</v>
+        <v>-0.03753018001782046</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
@@ -13829,7 +13829,7 @@
         <v>1157</v>
       </c>
       <c r="B1158">
-        <v>0.0209344134364987</v>
+        <v>0.01333543295609953</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
@@ -13837,7 +13837,7 @@
         <v>1158</v>
       </c>
       <c r="B1159">
-        <v>-0.009163828912255669</v>
+        <v>-0.01056874616910753</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
@@ -13845,7 +13845,7 @@
         <v>1159</v>
       </c>
       <c r="B1160">
-        <v>-0.03785383887094208</v>
+        <v>-0.04485542400994768</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
@@ -13853,7 +13853,7 @@
         <v>1160</v>
       </c>
       <c r="B1161">
-        <v>0.01781056804461562</v>
+        <v>0.01620323916116335</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
@@ -13861,7 +13861,7 @@
         <v>1161</v>
       </c>
       <c r="B1162">
-        <v>0.01929689847959369</v>
+        <v>0.017091672663238</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
@@ -13869,7 +13869,7 @@
         <v>1162</v>
       </c>
       <c r="B1163">
-        <v>0.006373016693858123</v>
+        <v>0.005087144699305838</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
@@ -13877,7 +13877,7 @@
         <v>1163</v>
       </c>
       <c r="B1164">
-        <v>0.02309475393917593</v>
+        <v>0.025100071269651</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
@@ -13885,7 +13885,7 @@
         <v>1164</v>
       </c>
       <c r="B1165">
-        <v>0.01666014313604518</v>
+        <v>0.02142994458515535</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
@@ -13893,7 +13893,7 @@
         <v>1165</v>
       </c>
       <c r="B1166">
-        <v>-0.006204576290033866</v>
+        <v>-0.003617952466521603</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
@@ -13901,7 +13901,7 @@
         <v>1166</v>
       </c>
       <c r="B1167">
-        <v>0.007473987864232929</v>
+        <v>0.006201241666648098</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
@@ -13909,7 +13909,7 @@
         <v>1167</v>
       </c>
       <c r="B1168">
-        <v>-0.01135786385814517</v>
+        <v>-0.01026493736657855</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
@@ -13917,7 +13917,7 @@
         <v>1168</v>
       </c>
       <c r="B1169">
-        <v>-0.0009734697732603243</v>
+        <v>-0.004905471532971766</v>
       </c>
     </row>
     <row r="1170" spans="1:2">
@@ -13925,7 +13925,7 @@
         <v>1169</v>
       </c>
       <c r="B1170">
-        <v>0.01747174279823343</v>
+        <v>0.01909778702595199</v>
       </c>
     </row>
     <row r="1171" spans="1:2">
@@ -13933,7 +13933,7 @@
         <v>1170</v>
       </c>
       <c r="B1171">
-        <v>0.01490662451694427</v>
+        <v>0.01817526210000136</v>
       </c>
     </row>
     <row r="1172" spans="1:2">
@@ -13941,7 +13941,7 @@
         <v>1171</v>
       </c>
       <c r="B1172">
-        <v>-0.007792191461101093</v>
+        <v>-0.01035881897807486</v>
       </c>
     </row>
     <row r="1173" spans="1:2">
@@ -13949,7 +13949,7 @@
         <v>1172</v>
       </c>
       <c r="B1173">
-        <v>-0.006137258118681209</v>
+        <v>-0.006049458561872102</v>
       </c>
     </row>
     <row r="1174" spans="1:2">
@@ -13957,7 +13957,7 @@
         <v>1173</v>
       </c>
       <c r="B1174">
-        <v>-0.009578752713081078</v>
+        <v>-0.01060930002171971</v>
       </c>
     </row>
     <row r="1175" spans="1:2">
@@ -13965,7 +13965,7 @@
         <v>1174</v>
       </c>
       <c r="B1175">
-        <v>0.009496554343553851</v>
+        <v>0.009731357280655412</v>
       </c>
     </row>
     <row r="1176" spans="1:2">
@@ -13973,7 +13973,7 @@
         <v>1175</v>
       </c>
       <c r="B1176">
-        <v>0.0124264413944465</v>
+        <v>0.01276788747538715</v>
       </c>
     </row>
     <row r="1177" spans="1:2">
@@ -13981,7 +13981,7 @@
         <v>1176</v>
       </c>
       <c r="B1177">
-        <v>0.01203946719033139</v>
+        <v>0.008796184321768244</v>
       </c>
     </row>
     <row r="1178" spans="1:2">
@@ -13989,7 +13989,7 @@
         <v>1177</v>
       </c>
       <c r="B1178">
-        <v>0.01421175898990655</v>
+        <v>0.01428185828952733</v>
       </c>
     </row>
     <row r="1179" spans="1:2">
@@ -13997,7 +13997,7 @@
         <v>1178</v>
       </c>
       <c r="B1179">
-        <v>0.003964424892867662</v>
+        <v>0.004070988571626702</v>
       </c>
     </row>
     <row r="1180" spans="1:2">
@@ -14005,7 +14005,7 @@
         <v>1179</v>
       </c>
       <c r="B1180">
-        <v>0.01514003746431094</v>
+        <v>0.01504141945554156</v>
       </c>
     </row>
     <row r="1181" spans="1:2">
@@ -14013,7 +14013,7 @@
         <v>1180</v>
       </c>
       <c r="B1181">
-        <v>0.001601825686098861</v>
+        <v>0.001633160878334196</v>
       </c>
     </row>
     <row r="1182" spans="1:2">
@@ -14021,7 +14021,7 @@
         <v>1181</v>
       </c>
       <c r="B1182">
-        <v>-0.006738075566461272</v>
+        <v>-0.007586587083531628</v>
       </c>
     </row>
     <row r="1183" spans="1:2">
@@ -14029,7 +14029,7 @@
         <v>1182</v>
       </c>
       <c r="B1183">
-        <v>-0.001891844906623888</v>
+        <v>-0.001286231325469138</v>
       </c>
     </row>
     <row r="1184" spans="1:2">
@@ -14037,7 +14037,7 @@
         <v>1183</v>
       </c>
       <c r="B1184">
-        <v>-0.001034368785066031</v>
+        <v>-0.001390298427648699</v>
       </c>
     </row>
     <row r="1185" spans="1:2">
@@ -14045,7 +14045,7 @@
         <v>1184</v>
       </c>
       <c r="B1185">
-        <v>0.0004555334457750317</v>
+        <v>0.0005322759097844429</v>
       </c>
     </row>
     <row r="1186" spans="1:2">
@@ -14053,7 +14053,7 @@
         <v>1185</v>
       </c>
       <c r="B1186">
-        <v>-0.01501641537948036</v>
+        <v>-0.0151255831149138</v>
       </c>
     </row>
     <row r="1187" spans="1:2">
@@ -14061,7 +14061,7 @@
         <v>1186</v>
       </c>
       <c r="B1187">
-        <v>0.003239085221640811</v>
+        <v>0.003766677021957829</v>
       </c>
     </row>
     <row r="1188" spans="1:2">
@@ -14069,7 +14069,7 @@
         <v>1187</v>
       </c>
       <c r="B1188">
-        <v>-0.0002503472039871281</v>
+        <v>-0.0004638857392772451</v>
       </c>
     </row>
     <row r="1189" spans="1:2">
@@ -14077,7 +14077,7 @@
         <v>1188</v>
       </c>
       <c r="B1189">
-        <v>-0.02773750504260227</v>
+        <v>-0.02778787993214244</v>
       </c>
     </row>
     <row r="1190" spans="1:2">
@@ -14085,7 +14085,7 @@
         <v>1189</v>
       </c>
       <c r="B1190">
-        <v>-0.02873587643994116</v>
+        <v>-0.02904869847491932</v>
       </c>
     </row>
     <row r="1191" spans="1:2">
@@ -14093,7 +14093,7 @@
         <v>1190</v>
       </c>
       <c r="B1191">
-        <v>0.03204823683980099</v>
+        <v>0.03341108067708477</v>
       </c>
     </row>
     <row r="1192" spans="1:2">
@@ -14101,7 +14101,7 @@
         <v>1191</v>
       </c>
       <c r="B1192">
-        <v>-0.0263255813882069</v>
+        <v>-0.02818000598792248</v>
       </c>
     </row>
     <row r="1193" spans="1:2">
@@ -14109,7 +14109,7 @@
         <v>1192</v>
       </c>
       <c r="B1193">
-        <v>-0.01146726535417876</v>
+        <v>-0.01131568401195989</v>
       </c>
     </row>
     <row r="1194" spans="1:2">
@@ -14117,7 +14117,7 @@
         <v>1193</v>
       </c>
       <c r="B1194">
-        <v>0.01807548079569866</v>
+        <v>0.01795019063332818</v>
       </c>
     </row>
     <row r="1195" spans="1:2">
@@ -14125,7 +14125,7 @@
         <v>1194</v>
       </c>
       <c r="B1195">
-        <v>-0.02625070943048773</v>
+        <v>-0.02638221990702456</v>
       </c>
     </row>
     <row r="1196" spans="1:2">
@@ -14133,7 +14133,7 @@
         <v>1195</v>
       </c>
       <c r="B1196">
-        <v>0.01034342654193717</v>
+        <v>0.009880056950400357</v>
       </c>
     </row>
     <row r="1197" spans="1:2">
@@ -14141,7 +14141,7 @@
         <v>1196</v>
       </c>
       <c r="B1197">
-        <v>0.01055252621392051</v>
+        <v>0.0100176585631639</v>
       </c>
     </row>
     <row r="1198" spans="1:2">
@@ -14149,7 +14149,7 @@
         <v>1197</v>
       </c>
       <c r="B1198">
-        <v>0.000757544897928251</v>
+        <v>0.0007366314072796087</v>
       </c>
     </row>
     <row r="1199" spans="1:2">
@@ -14157,7 +14157,7 @@
         <v>1198</v>
       </c>
       <c r="B1199">
-        <v>-0.02363751107382139</v>
+        <v>-0.02365897314501063</v>
       </c>
     </row>
     <row r="1200" spans="1:2">
@@ -14165,7 +14165,7 @@
         <v>1199</v>
       </c>
       <c r="B1200">
-        <v>0.004524808359500604</v>
+        <v>0.004225656125909229</v>
       </c>
     </row>
     <row r="1201" spans="1:2">
@@ -14173,7 +14173,7 @@
         <v>1200</v>
       </c>
       <c r="B1201">
-        <v>0.0255120399350257</v>
+        <v>0.02529626651855882</v>
       </c>
     </row>
     <row r="1202" spans="1:2">
@@ -14181,7 +14181,7 @@
         <v>1201</v>
       </c>
       <c r="B1202">
-        <v>-0.003067431795301837</v>
+        <v>-0.003035875735158059</v>
       </c>
     </row>
     <row r="1203" spans="1:2">
@@ -14189,7 +14189,7 @@
         <v>1202</v>
       </c>
       <c r="B1203">
-        <v>0.01336258257433878</v>
+        <v>0.01324019776613753</v>
       </c>
     </row>
     <row r="1204" spans="1:2">
@@ -14197,7 +14197,7 @@
         <v>1203</v>
       </c>
       <c r="B1204">
-        <v>-0.008793461007935561</v>
+        <v>-0.00890589847182594</v>
       </c>
     </row>
     <row r="1205" spans="1:2">
@@ -14205,7 +14205,7 @@
         <v>1204</v>
       </c>
       <c r="B1205">
-        <v>0.008153414225792166</v>
+        <v>0.008196858069485604</v>
       </c>
     </row>
     <row r="1206" spans="1:2">
@@ -14213,7 +14213,7 @@
         <v>1205</v>
       </c>
       <c r="B1206">
-        <v>0.01960099985191285</v>
+        <v>0.01993858815894074</v>
       </c>
     </row>
     <row r="1207" spans="1:2">
@@ -14221,7 +14221,7 @@
         <v>1206</v>
       </c>
       <c r="B1207">
-        <v>0.0005343772069872374</v>
+        <v>0.0002015165051772186</v>
       </c>
     </row>
     <row r="1208" spans="1:2">
@@ -14229,7 +14229,7 @@
         <v>1207</v>
       </c>
       <c r="B1208">
-        <v>-0.01575843759338033</v>
+        <v>-0.01546291829804915</v>
       </c>
     </row>
     <row r="1209" spans="1:2">
@@ -14237,7 +14237,7 @@
         <v>1208</v>
       </c>
       <c r="B1209">
-        <v>-0.0137681185664117</v>
+        <v>-0.01351125688264098</v>
       </c>
     </row>
     <row r="1210" spans="1:2">
@@ -14245,7 +14245,7 @@
         <v>1209</v>
       </c>
       <c r="B1210">
-        <v>-0.008086075422635831</v>
+        <v>-0.008046155271761675</v>
       </c>
     </row>
     <row r="1211" spans="1:2">
@@ -14253,7 +14253,7 @@
         <v>1210</v>
       </c>
       <c r="B1211">
-        <v>-0.0125898792829344</v>
+        <v>-0.01247178502785839</v>
       </c>
     </row>
     <row r="1212" spans="1:2">
@@ -14261,7 +14261,7 @@
         <v>1211</v>
       </c>
       <c r="B1212">
-        <v>0.002177298123999056</v>
+        <v>0.001476803224444287</v>
       </c>
     </row>
     <row r="1213" spans="1:2">
@@ -14269,7 +14269,7 @@
         <v>1212</v>
       </c>
       <c r="B1213">
-        <v>0.01221625211955575</v>
+        <v>0.01250361043912759</v>
       </c>
     </row>
     <row r="1214" spans="1:2">
@@ -14277,7 +14277,7 @@
         <v>1213</v>
       </c>
       <c r="B1214">
-        <v>-0.001784579445294788</v>
+        <v>-0.001561742789388451</v>
       </c>
     </row>
     <row r="1215" spans="1:2">
@@ -14285,7 +14285,7 @@
         <v>1214</v>
       </c>
       <c r="B1215">
-        <v>-0.002927692581810584</v>
+        <v>-0.003087257284592608</v>
       </c>
     </row>
     <row r="1216" spans="1:2">
@@ -14293,7 +14293,7 @@
         <v>1215</v>
       </c>
       <c r="B1216">
-        <v>0.0118532024906934</v>
+        <v>0.01211317572337303</v>
       </c>
     </row>
     <row r="1217" spans="1:2">
@@ -14301,7 +14301,7 @@
         <v>1216</v>
       </c>
       <c r="B1217">
-        <v>-0.004260744083177135</v>
+        <v>-0.005585280934706937</v>
       </c>
     </row>
     <row r="1218" spans="1:2">
@@ -14309,7 +14309,7 @@
         <v>1217</v>
       </c>
       <c r="B1218">
-        <v>0.01085065600065267</v>
+        <v>0.009843832317320198</v>
       </c>
     </row>
     <row r="1219" spans="1:2">
@@ -14317,7 +14317,7 @@
         <v>1218</v>
       </c>
       <c r="B1219">
-        <v>0.01264497433575453</v>
+        <v>0.01385550428218607</v>
       </c>
     </row>
     <row r="1220" spans="1:2">
@@ -14325,7 +14325,7 @@
         <v>1219</v>
       </c>
       <c r="B1220">
-        <v>0.009407430096994315</v>
+        <v>0.008814102743194467</v>
       </c>
     </row>
     <row r="1221" spans="1:2">
@@ -14333,7 +14333,7 @@
         <v>1220</v>
       </c>
       <c r="B1221">
-        <v>0.007787283121286446</v>
+        <v>0.008304640466417667</v>
       </c>
     </row>
     <row r="1222" spans="1:2">
@@ -14341,7 +14341,7 @@
         <v>1221</v>
       </c>
       <c r="B1222">
-        <v>0.01303900644522442</v>
+        <v>0.01250599344851559</v>
       </c>
     </row>
     <row r="1223" spans="1:2">
@@ -14349,7 +14349,7 @@
         <v>1222</v>
       </c>
       <c r="B1223">
-        <v>0.005480797358785452</v>
+        <v>0.004998224283377107</v>
       </c>
     </row>
     <row r="1224" spans="1:2">
@@ -14357,7 +14357,7 @@
         <v>1223</v>
       </c>
       <c r="B1224">
-        <v>-0.006109241591257789</v>
+        <v>-0.006088313937315883</v>
       </c>
     </row>
     <row r="1225" spans="1:2">
@@ -14365,7 +14365,7 @@
         <v>1224</v>
       </c>
       <c r="B1225">
-        <v>-0.002378480547937063</v>
+        <v>-0.002319904813287605</v>
       </c>
     </row>
     <row r="1226" spans="1:2">
@@ -14373,7 +14373,7 @@
         <v>1225</v>
       </c>
       <c r="B1226">
-        <v>-0.008295673308076167</v>
+        <v>-0.006049341248131448</v>
       </c>
     </row>
     <row r="1227" spans="1:2">
@@ -14381,7 +14381,7 @@
         <v>1226</v>
       </c>
       <c r="B1227">
-        <v>0.005042221043413236</v>
+        <v>0.005557628906380637</v>
       </c>
     </row>
     <row r="1228" spans="1:2">
@@ -14389,7 +14389,7 @@
         <v>1227</v>
       </c>
       <c r="B1228">
-        <v>0.001442857882546525</v>
+        <v>0.0008347178460478</v>
       </c>
     </row>
     <row r="1229" spans="1:2">
@@ -14397,7 +14397,7 @@
         <v>1228</v>
       </c>
       <c r="B1229">
-        <v>-0.002180613185606516</v>
+        <v>-0.001151478459083436</v>
       </c>
     </row>
     <row r="1230" spans="1:2">
@@ -14405,7 +14405,7 @@
         <v>1229</v>
       </c>
       <c r="B1230">
-        <v>0.007140143220578351</v>
+        <v>0.005184176336099033</v>
       </c>
     </row>
     <row r="1231" spans="1:2">
@@ -14413,7 +14413,7 @@
         <v>1230</v>
       </c>
       <c r="B1231">
-        <v>-0.003412052610302468</v>
+        <v>-0.003260535600324113</v>
       </c>
     </row>
     <row r="1232" spans="1:2">
@@ -14421,7 +14421,7 @@
         <v>1231</v>
       </c>
       <c r="B1232">
-        <v>0.004187578910185476</v>
+        <v>0.002162357386312827</v>
       </c>
     </row>
     <row r="1233" spans="1:2">
@@ -14429,7 +14429,7 @@
         <v>1232</v>
       </c>
       <c r="B1233">
-        <v>-0.004487946473717761</v>
+        <v>-0.002772152065296281</v>
       </c>
     </row>
     <row r="1234" spans="1:2">
@@ -14437,7 +14437,7 @@
         <v>1233</v>
       </c>
       <c r="B1234">
-        <v>0.001461904141776672</v>
+        <v>0.001702403978824116</v>
       </c>
     </row>
     <row r="1235" spans="1:2">
@@ -14461,7 +14461,7 @@
         <v>1236</v>
       </c>
       <c r="B1237">
-        <v>0.01054147585871166</v>
+        <v>0.009211124562115322</v>
       </c>
     </row>
     <row r="1238" spans="1:2">
@@ -14469,7 +14469,7 @@
         <v>1237</v>
       </c>
       <c r="B1238">
-        <v>-0.006785644702086085</v>
+        <v>-0.006093247079760502</v>
       </c>
     </row>
     <row r="1239" spans="1:2">
@@ -14477,7 +14477,7 @@
         <v>1238</v>
       </c>
       <c r="B1239">
-        <v>0.01826824121372462</v>
+        <v>0.01822469895109623</v>
       </c>
     </row>
     <row r="1240" spans="1:2">
@@ -14485,7 +14485,7 @@
         <v>1239</v>
       </c>
       <c r="B1240">
-        <v>0.005935813893953553</v>
+        <v>0.006766253071229365</v>
       </c>
     </row>
     <row r="1241" spans="1:2">
@@ -14493,7 +14493,7 @@
         <v>1240</v>
       </c>
       <c r="B1241">
-        <v>0.001903285122462245</v>
+        <v>0.001705381968112338</v>
       </c>
     </row>
     <row r="1242" spans="1:2">
@@ -14501,7 +14501,7 @@
         <v>1241</v>
       </c>
       <c r="B1242">
-        <v>0.007961960127086623</v>
+        <v>0.007615128046393881</v>
       </c>
     </row>
     <row r="1243" spans="1:2">
@@ -14509,7 +14509,7 @@
         <v>1242</v>
       </c>
       <c r="B1243">
-        <v>-0.006984756421005375</v>
+        <v>-0.008304069000988153</v>
       </c>
     </row>
     <row r="1244" spans="1:2">
@@ -14517,7 +14517,7 @@
         <v>1243</v>
       </c>
       <c r="B1244">
-        <v>-0.0002419636444650718</v>
+        <v>0.001748297338971026</v>
       </c>
     </row>
     <row r="1245" spans="1:2">
@@ -14525,7 +14525,7 @@
         <v>1244</v>
       </c>
       <c r="B1245">
-        <v>-0.004017318036593928</v>
+        <v>-0.003657209874044341</v>
       </c>
     </row>
     <row r="1246" spans="1:2">
@@ -14533,7 +14533,7 @@
         <v>1245</v>
       </c>
       <c r="B1246">
-        <v>0.005487617142707074</v>
+        <v>0.006185277523329914</v>
       </c>
     </row>
     <row r="1247" spans="1:2">
@@ -14541,7 +14541,7 @@
         <v>1246</v>
       </c>
       <c r="B1247">
-        <v>-0.001221481677790156</v>
+        <v>-0.0003173444595927478</v>
       </c>
     </row>
     <row r="1248" spans="1:2">
@@ -14549,7 +14549,7 @@
         <v>1247</v>
       </c>
       <c r="B1248">
-        <v>0.0004908906406160345</v>
+        <v>-0.0003506135695604309</v>
       </c>
     </row>
     <row r="1249" spans="1:2">
@@ -14557,7 +14557,7 @@
         <v>1248</v>
       </c>
       <c r="B1249">
-        <v>-0.005233081457786278</v>
+        <v>-0.005819644898532006</v>
       </c>
     </row>
     <row r="1250" spans="1:2">
@@ -14565,7 +14565,7 @@
         <v>1249</v>
       </c>
       <c r="B1250">
-        <v>-0.005770189265516918</v>
+        <v>-0.003952885388873471</v>
       </c>
     </row>
     <row r="1251" spans="1:2">
@@ -14573,7 +14573,7 @@
         <v>1250</v>
       </c>
       <c r="B1251">
-        <v>-0.006082536315622298</v>
+        <v>-0.005243870811889486</v>
       </c>
     </row>
     <row r="1252" spans="1:2">
@@ -14581,7 +14581,7 @@
         <v>1251</v>
       </c>
       <c r="B1252">
-        <v>-0.002734428217011496</v>
+        <v>-0.004341000820606939</v>
       </c>
     </row>
     <row r="1253" spans="1:2">
@@ -14589,7 +14589,7 @@
         <v>1252</v>
       </c>
       <c r="B1253">
-        <v>-0.006951727574977619</v>
+        <v>-0.006604756643324119</v>
       </c>
     </row>
     <row r="1254" spans="1:2">
@@ -14597,7 +14597,7 @@
         <v>1253</v>
       </c>
       <c r="B1254">
-        <v>-0.007863950668899574</v>
+        <v>-0.009332836753091486</v>
       </c>
     </row>
     <row r="1255" spans="1:2">
@@ -14605,7 +14605,7 @@
         <v>1254</v>
       </c>
       <c r="B1255">
-        <v>-0.02520814348901035</v>
+        <v>-0.02540042135996674</v>
       </c>
     </row>
     <row r="1256" spans="1:2">
@@ -14613,7 +14613,7 @@
         <v>1255</v>
       </c>
       <c r="B1256">
-        <v>0.003136506145466108</v>
+        <v>0.005148166227395521</v>
       </c>
     </row>
     <row r="1257" spans="1:2">
@@ -14621,7 +14621,7 @@
         <v>1256</v>
       </c>
       <c r="B1257">
-        <v>-0.01841905037615039</v>
+        <v>-0.01916397303181522</v>
       </c>
     </row>
     <row r="1258" spans="1:2">
@@ -14629,7 +14629,7 @@
         <v>1257</v>
       </c>
       <c r="B1258">
-        <v>0.01321724333949317</v>
+        <v>0.01379622431049544</v>
       </c>
     </row>
     <row r="1259" spans="1:2">
@@ -14637,7 +14637,7 @@
         <v>1258</v>
       </c>
       <c r="B1259">
-        <v>0.002689608703447078</v>
+        <v>0.002499730307822103</v>
       </c>
     </row>
     <row r="1260" spans="1:2">
@@ -14821,7 +14821,7 @@
         <v>1281</v>
       </c>
       <c r="B1282">
-        <v>0.01212960630606237</v>
+        <v>0.009308271431272811</v>
       </c>
     </row>
     <row r="1283" spans="1:2">
@@ -14829,7 +14829,7 @@
         <v>1282</v>
       </c>
       <c r="B1283">
-        <v>0.01426127551168773</v>
+        <v>0.01148066681237065</v>
       </c>
     </row>
     <row r="1284" spans="1:2">
@@ -14837,7 +14837,7 @@
         <v>1283</v>
       </c>
       <c r="B1284">
-        <v>0.003162963728645922</v>
+        <v>0.006150107916341391</v>
       </c>
     </row>
     <row r="1285" spans="1:2">
@@ -14845,7 +14845,7 @@
         <v>1284</v>
       </c>
       <c r="B1285">
-        <v>0.006277505282232328</v>
+        <v>0.005350969143605048</v>
       </c>
     </row>
     <row r="1286" spans="1:2">
@@ -14853,7 +14853,7 @@
         <v>1285</v>
       </c>
       <c r="B1286">
-        <v>0.005475824952064897</v>
+        <v>0.003920375488850584</v>
       </c>
     </row>
     <row r="1287" spans="1:2">
@@ -14861,7 +14861,7 @@
         <v>1286</v>
       </c>
       <c r="B1287">
-        <v>0.004335386559367493</v>
+        <v>0.001995628407469177</v>
       </c>
     </row>
     <row r="1288" spans="1:2">
@@ -14869,7 +14869,7 @@
         <v>1287</v>
       </c>
       <c r="B1288">
-        <v>0.0004683935891953974</v>
+        <v>-0.0002233147464616389</v>
       </c>
     </row>
     <row r="1289" spans="1:2">
@@ -14877,7 +14877,7 @@
         <v>1288</v>
       </c>
       <c r="B1289">
-        <v>-0.00664637832824886</v>
+        <v>-0.005592599814034381</v>
       </c>
     </row>
     <row r="1290" spans="1:2">
@@ -14885,7 +14885,7 @@
         <v>1289</v>
       </c>
       <c r="B1290">
-        <v>-0.001861678201380221</v>
+        <v>-0.003051131255467976</v>
       </c>
     </row>
     <row r="1291" spans="1:2">
@@ -14893,7 +14893,7 @@
         <v>1290</v>
       </c>
       <c r="B1291">
-        <v>0.008050015140902474</v>
+        <v>0.006622193911729686</v>
       </c>
     </row>
     <row r="1292" spans="1:2">
@@ -14901,7 +14901,7 @@
         <v>1291</v>
       </c>
       <c r="B1292">
-        <v>-0.00649316147286351</v>
+        <v>-0.005029174659863608</v>
       </c>
     </row>
     <row r="1293" spans="1:2">
@@ -14909,7 +14909,7 @@
         <v>1292</v>
       </c>
       <c r="B1293">
-        <v>0.004215357872977115</v>
+        <v>0.006959789280273642</v>
       </c>
     </row>
     <row r="1294" spans="1:2">
@@ -14917,7 +14917,7 @@
         <v>1293</v>
       </c>
       <c r="B1294">
-        <v>-0.001594463813567528</v>
+        <v>0.007386771737460806</v>
       </c>
     </row>
     <row r="1295" spans="1:2">
@@ -14925,7 +14925,7 @@
         <v>1294</v>
       </c>
       <c r="B1295">
-        <v>0.0001454801585673376</v>
+        <v>0.001148061850283596</v>
       </c>
     </row>
     <row r="1296" spans="1:2">
@@ -14933,7 +14933,7 @@
         <v>1295</v>
       </c>
       <c r="B1296">
-        <v>0.007966979925536619</v>
+        <v>0.006876316042037598</v>
       </c>
     </row>
     <row r="1297" spans="1:2">
@@ -14941,7 +14941,7 @@
         <v>1296</v>
       </c>
       <c r="B1297">
-        <v>0.006123765661626894</v>
+        <v>0.0008999867876477664</v>
       </c>
     </row>
     <row r="1298" spans="1:2">
@@ -14949,7 +14949,7 @@
         <v>1297</v>
       </c>
       <c r="B1298">
-        <v>0.00168665261109702</v>
+        <v>-0.0008946534224754029</v>
       </c>
     </row>
     <row r="1299" spans="1:2">
@@ -14957,7 +14957,7 @@
         <v>1298</v>
       </c>
       <c r="B1299">
-        <v>0.01314979022838519</v>
+        <v>0.003949993758874001</v>
       </c>
     </row>
     <row r="1300" spans="1:2">
@@ -14965,7 +14965,7 @@
         <v>1299</v>
       </c>
       <c r="B1300">
-        <v>0.009050608215040536</v>
+        <v>0.008493945296026525</v>
       </c>
     </row>
     <row r="1301" spans="1:2">
@@ -14973,7 +14973,7 @@
         <v>1300</v>
       </c>
       <c r="B1301">
-        <v>0.001986403196153811</v>
+        <v>0.006404392051724415</v>
       </c>
     </row>
     <row r="1302" spans="1:2">
@@ -14981,7 +14981,7 @@
         <v>1301</v>
       </c>
       <c r="B1302">
-        <v>0.01063729623990071</v>
+        <v>0.01086359488661581</v>
       </c>
     </row>
     <row r="1303" spans="1:2">
@@ -14989,7 +14989,7 @@
         <v>1302</v>
       </c>
       <c r="B1303">
-        <v>-0.004490774501815447</v>
+        <v>-0.006199610185304949</v>
       </c>
     </row>
     <row r="1304" spans="1:2">
@@ -14997,7 +14997,7 @@
         <v>1303</v>
       </c>
       <c r="B1304">
-        <v>0.005119252570598752</v>
+        <v>0.002690085239558442</v>
       </c>
     </row>
     <row r="1305" spans="1:2">
@@ -15157,7 +15157,7 @@
         <v>1323</v>
       </c>
       <c r="B1324">
-        <v>0.001668298276625013</v>
+        <v>0.003395264811004691</v>
       </c>
     </row>
     <row r="1325" spans="1:2">
@@ -15165,7 +15165,7 @@
         <v>1324</v>
       </c>
       <c r="B1325">
-        <v>-0.001857707598861006</v>
+        <v>-0.003005407155833709</v>
       </c>
     </row>
     <row r="1326" spans="1:2">
@@ -15173,7 +15173,7 @@
         <v>1325</v>
       </c>
       <c r="B1326">
-        <v>0.002723456236911547</v>
+        <v>0.001315106964716894</v>
       </c>
     </row>
     <row r="1327" spans="1:2">
@@ -15181,7 +15181,7 @@
         <v>1326</v>
       </c>
       <c r="B1327">
-        <v>-0.0163291296838185</v>
+        <v>-0.01925407362883094</v>
       </c>
     </row>
     <row r="1328" spans="1:2">
@@ -15189,7 +15189,7 @@
         <v>1327</v>
       </c>
       <c r="B1328">
-        <v>-0.01732609381029999</v>
+        <v>-0.01319640444885647</v>
       </c>
     </row>
     <row r="1329" spans="1:2">
@@ -15197,7 +15197,7 @@
         <v>1328</v>
       </c>
       <c r="B1329">
-        <v>-0.005803144272855538</v>
+        <v>-0.01162454076307153</v>
       </c>
     </row>
     <row r="1330" spans="1:2">
@@ -15205,7 +15205,7 @@
         <v>1329</v>
       </c>
       <c r="B1330">
-        <v>0.000241693534446944</v>
+        <v>0.002049264850060965</v>
       </c>
     </row>
     <row r="1331" spans="1:2">
@@ -15213,7 +15213,7 @@
         <v>1330</v>
       </c>
       <c r="B1331">
-        <v>-0.04363805608349638</v>
+        <v>-0.04845238700835297</v>
       </c>
     </row>
     <row r="1332" spans="1:2">
@@ -15221,7 +15221,7 @@
         <v>1331</v>
       </c>
       <c r="B1332">
-        <v>-0.02021926678280445</v>
+        <v>-0.01614925261990008</v>
       </c>
     </row>
     <row r="1333" spans="1:2">
@@ -15229,7 +15229,7 @@
         <v>1332</v>
       </c>
       <c r="B1333">
-        <v>0.02065164271710342</v>
+        <v>0.02327844010781453</v>
       </c>
     </row>
     <row r="1334" spans="1:2">
@@ -15237,7 +15237,7 @@
         <v>1333</v>
       </c>
       <c r="B1334">
-        <v>-0.006349323006891084</v>
+        <v>-0.01417493945154524</v>
       </c>
     </row>
     <row r="1335" spans="1:2">
@@ -15245,7 +15245,7 @@
         <v>1334</v>
       </c>
       <c r="B1335">
-        <v>0.02874100653499822</v>
+        <v>0.03604778152822575</v>
       </c>
     </row>
     <row r="1336" spans="1:2">
@@ -15253,7 +15253,7 @@
         <v>1335</v>
       </c>
       <c r="B1336">
-        <v>-0.00382730900522619</v>
+        <v>-0.006677284854343932</v>
       </c>
     </row>
     <row r="1337" spans="1:2">
@@ -15261,7 +15261,7 @@
         <v>1336</v>
       </c>
       <c r="B1337">
-        <v>-0.01496754718466699</v>
+        <v>-0.01902787785007131</v>
       </c>
     </row>
     <row r="1338" spans="1:2">
@@ -15269,7 +15269,7 @@
         <v>1337</v>
       </c>
       <c r="B1338">
-        <v>-0.002697647400417238</v>
+        <v>-0.005983230247530237</v>
       </c>
     </row>
     <row r="1339" spans="1:2">
@@ -15277,7 +15277,7 @@
         <v>1338</v>
       </c>
       <c r="B1339">
-        <v>0.006026637622563212</v>
+        <v>0.01159388081203942</v>
       </c>
     </row>
     <row r="1340" spans="1:2">
@@ -15285,7 +15285,7 @@
         <v>1339</v>
       </c>
       <c r="B1340">
-        <v>0.00257751513512487</v>
+        <v>0.001565325490045944</v>
       </c>
     </row>
     <row r="1341" spans="1:2">
@@ -15293,7 +15293,7 @@
         <v>1340</v>
       </c>
       <c r="B1341">
-        <v>-0.04253477432938942</v>
+        <v>-0.05418976896769758</v>
       </c>
     </row>
     <row r="1342" spans="1:2">
@@ -15301,7 +15301,7 @@
         <v>1341</v>
       </c>
       <c r="B1342">
-        <v>0.01777273448659446</v>
+        <v>0.02304555080853474</v>
       </c>
     </row>
     <row r="1343" spans="1:2">
@@ -15309,7 +15309,7 @@
         <v>1342</v>
       </c>
       <c r="B1343">
-        <v>-0.0212741768173134</v>
+        <v>-0.02331893380442181</v>
       </c>
     </row>
     <row r="1344" spans="1:2">
@@ -15317,7 +15317,7 @@
         <v>1343</v>
       </c>
       <c r="B1344">
-        <v>-0.01162083670661578</v>
+        <v>-0.01518060164780554</v>
       </c>
     </row>
     <row r="1345" spans="1:2">
@@ -15325,7 +15325,7 @@
         <v>1344</v>
       </c>
       <c r="B1345">
-        <v>0.02128163979949984</v>
+        <v>0.0174503739974346</v>
       </c>
     </row>
     <row r="1346" spans="1:2">
@@ -15333,7 +15333,7 @@
         <v>1345</v>
       </c>
       <c r="B1346">
-        <v>0.02291330142942602</v>
+        <v>0.02907471597550601</v>
       </c>
     </row>
     <row r="1347" spans="1:2">
@@ -15517,7 +15517,7 @@
         <v>1368</v>
       </c>
       <c r="B1369">
-        <v>0.01940866207816228</v>
+        <v>0.01937157279445872</v>
       </c>
     </row>
     <row r="1370" spans="1:2">
@@ -15525,7 +15525,7 @@
         <v>1369</v>
       </c>
       <c r="B1370">
-        <v>-0.03354568364228906</v>
+        <v>-0.03348129720192282</v>
       </c>
     </row>
     <row r="1371" spans="1:2">
@@ -15549,7 +15549,7 @@
         <v>1372</v>
       </c>
       <c r="B1373">
-        <v>-0.03179337481023085</v>
+        <v>-0.03177615345214689</v>
       </c>
     </row>
     <row r="1374" spans="1:2">
@@ -15557,7 +15557,7 @@
         <v>1373</v>
       </c>
       <c r="B1374">
-        <v>0.01506188034016411</v>
+        <v>0.01504122921225899</v>
       </c>
     </row>
     <row r="1375" spans="1:2">
@@ -15565,7 +15565,7 @@
         <v>1374</v>
       </c>
       <c r="B1375">
-        <v>-0.000487989599948581</v>
+        <v>-0.000493551742785604</v>
       </c>
     </row>
     <row r="1376" spans="1:2">
@@ -15573,7 +15573,7 @@
         <v>1375</v>
       </c>
       <c r="B1376">
-        <v>0.008784808732145164</v>
+        <v>0.008818243923176049</v>
       </c>
     </row>
     <row r="1377" spans="1:2">
@@ -15581,7 +15581,7 @@
         <v>1376</v>
       </c>
       <c r="B1377">
-        <v>0.003212534110023293</v>
+        <v>0.003136471489144973</v>
       </c>
     </row>
     <row r="1378" spans="1:2">
@@ -15589,7 +15589,7 @@
         <v>1377</v>
       </c>
       <c r="B1378">
-        <v>-0.01938475523498721</v>
+        <v>-0.0194249635573356</v>
       </c>
     </row>
     <row r="1379" spans="1:2">
@@ -15597,7 +15597,7 @@
         <v>1378</v>
       </c>
       <c r="B1379">
-        <v>-0.01923618611522237</v>
+        <v>-0.01932986741616292</v>
       </c>
     </row>
     <row r="1380" spans="1:2">
@@ -15605,7 +15605,7 @@
         <v>1379</v>
       </c>
       <c r="B1380">
-        <v>0.00641866338691309</v>
+        <v>0.006324565747890329</v>
       </c>
     </row>
     <row r="1381" spans="1:2">
@@ -15613,7 +15613,7 @@
         <v>1380</v>
       </c>
       <c r="B1381">
-        <v>-0.01964807296702453</v>
+        <v>-0.01948758226621737</v>
       </c>
     </row>
     <row r="1382" spans="1:2">
@@ -15621,7 +15621,7 @@
         <v>1381</v>
       </c>
       <c r="B1382">
-        <v>-0.009296686409690509</v>
+        <v>-0.00928067697079378</v>
       </c>
     </row>
     <row r="1383" spans="1:2">
@@ -15629,7 +15629,7 @@
         <v>1382</v>
       </c>
       <c r="B1383">
-        <v>-0.03003466667431077</v>
+        <v>-0.03007360835000934</v>
       </c>
     </row>
     <row r="1384" spans="1:2">
@@ -15637,7 +15637,7 @@
         <v>1383</v>
       </c>
       <c r="B1384">
-        <v>-0.02712620728879548</v>
+        <v>-0.02715144310007702</v>
       </c>
     </row>
     <row r="1385" spans="1:2">
@@ -15645,7 +15645,7 @@
         <v>1384</v>
       </c>
       <c r="B1385">
-        <v>0.05256141460847188</v>
+        <v>0.05249364468295266</v>
       </c>
     </row>
     <row r="1386" spans="1:2">
@@ -15653,7 +15653,7 @@
         <v>1385</v>
       </c>
       <c r="B1386">
-        <v>0.004173170969951217</v>
+        <v>0.004230253144168264</v>
       </c>
     </row>
     <row r="1387" spans="1:2">
@@ -15661,7 +15661,7 @@
         <v>1386</v>
       </c>
       <c r="B1387">
-        <v>0.003136967397973334</v>
+        <v>0.003082761767742604</v>
       </c>
     </row>
     <row r="1388" spans="1:2">
@@ -15669,7 +15669,7 @@
         <v>1387</v>
       </c>
       <c r="B1388">
-        <v>0.007251139645543277</v>
+        <v>0.00727957004023195</v>
       </c>
     </row>
     <row r="1389" spans="1:2">
@@ -15677,7 +15677,7 @@
         <v>1388</v>
       </c>
       <c r="B1389">
-        <v>-0.0006908152425477396</v>
+        <v>-0.002205572895894557</v>
       </c>
     </row>
     <row r="1390" spans="1:2">
@@ -15685,7 +15685,7 @@
         <v>1389</v>
       </c>
       <c r="B1390">
-        <v>-0.03189738430958262</v>
+        <v>-0.0406022036910479</v>
       </c>
     </row>
     <row r="1391" spans="1:2">
@@ -15693,7 +15693,7 @@
         <v>1390</v>
       </c>
       <c r="B1391">
-        <v>0.0473373715291752</v>
+        <v>0.04579456052204552</v>
       </c>
     </row>
     <row r="1392" spans="1:2">
@@ -15701,7 +15701,7 @@
         <v>1391</v>
       </c>
       <c r="B1392">
-        <v>0.01671124898882215</v>
+        <v>0.01182257356509709</v>
       </c>
     </row>
     <row r="1393" spans="1:2">
@@ -15709,7 +15709,7 @@
         <v>1392</v>
       </c>
       <c r="B1393">
-        <v>0.002799548609836196</v>
+        <v>0.008645212099719539</v>
       </c>
     </row>
     <row r="1394" spans="1:2">
@@ -15717,7 +15717,7 @@
         <v>1393</v>
       </c>
       <c r="B1394">
-        <v>-0.000772804705691917</v>
+        <v>0.004838938284684128</v>
       </c>
     </row>
     <row r="1395" spans="1:2">
@@ -15725,7 +15725,7 @@
         <v>1394</v>
       </c>
       <c r="B1395">
-        <v>0.004662962740576346</v>
+        <v>0.005752212442353997</v>
       </c>
     </row>
     <row r="1396" spans="1:2">
@@ -15733,7 +15733,7 @@
         <v>1395</v>
       </c>
       <c r="B1396">
-        <v>0.01421251847935348</v>
+        <v>0.006583248011512248</v>
       </c>
     </row>
     <row r="1397" spans="1:2">
